--- a/emotions/fer_experiments.xlsx
+++ b/emotions/fer_experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\my-study-python\emotions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED42B518-C57D-4E12-BA41-1504BBF97F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9658EC4-2A9F-48DC-AC90-E03D94C092EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FER-2013" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
-    <sheet name="FER-2013_Arch" sheetId="7" r:id="rId7"/>
+    <sheet name="FER-2013_Arch_2" sheetId="8" r:id="rId7"/>
+    <sheet name="FER-2013_Arch_1" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="13">
   <si>
     <t>angry</t>
   </si>
@@ -196,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -206,7 +207,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,15 +487,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:F42"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -517,157 +517,202 @@
       <c r="G1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>172</v>
+        <v>779</v>
       </c>
       <c r="C2" s="2">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <f>SUM(B2:F2)</f>
+        <f t="shared" ref="G2:G7" si="0">SUM(B2:F2)</f>
         <v>958</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <f>J2-G2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>163</v>
-      </c>
-      <c r="C3" s="9">
-        <v>146</v>
-      </c>
-      <c r="D3" s="9">
-        <v>263</v>
-      </c>
-      <c r="E3" s="9">
-        <v>235</v>
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>715</v>
+      </c>
+      <c r="D3">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>121</v>
       </c>
       <c r="F3" s="5">
-        <v>217</v>
+        <v>87</v>
       </c>
       <c r="G3">
-        <f>SUM(B3:F3)</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <f t="shared" ref="H3:H43" si="1">J3-G3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>288</v>
-      </c>
-      <c r="C4" s="9">
-        <v>268</v>
-      </c>
-      <c r="D4" s="9">
-        <v>499</v>
-      </c>
-      <c r="E4" s="9">
-        <v>389</v>
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>138</v>
+      </c>
+      <c r="D4">
+        <v>1279</v>
+      </c>
+      <c r="E4">
+        <v>169</v>
       </c>
       <c r="F4" s="5">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="G4">
-        <f>SUM(B4:F4)</f>
+        <f t="shared" si="0"/>
         <v>1774</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>208</v>
-      </c>
-      <c r="C5" s="9">
-        <v>162</v>
-      </c>
-      <c r="D5" s="9">
-        <v>334</v>
-      </c>
-      <c r="E5" s="9">
-        <v>274</v>
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <v>98</v>
+      </c>
+      <c r="D5">
+        <v>104</v>
+      </c>
+      <c r="E5">
+        <v>833</v>
       </c>
       <c r="F5" s="5">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="G5">
-        <f>SUM(B5:F5)</f>
+        <f t="shared" si="0"/>
         <v>1233</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="C6" s="7">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>378</v>
+        <v>148</v>
       </c>
       <c r="E6" s="7">
-        <v>264</v>
+        <v>119</v>
       </c>
       <c r="F6" s="8">
-        <v>230</v>
+        <v>865</v>
       </c>
       <c r="G6">
-        <f>SUM(B6:F6)</f>
+        <f t="shared" si="0"/>
         <v>1247</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <f>SUM(B2:B6)</f>
-        <v>1043</v>
+        <v>1070</v>
       </c>
       <c r="C7">
         <f>SUM(C2:C6)</f>
-        <v>894</v>
+        <v>1019</v>
       </c>
       <c r="D7">
         <f>SUM(D2:D6)</f>
-        <v>1731</v>
+        <v>1629</v>
       </c>
       <c r="E7">
         <f>SUM(E2:E6)</f>
-        <v>1359</v>
+        <v>1289</v>
       </c>
       <c r="F7">
         <f>SUM(F2:F6)</f>
-        <v>1209</v>
+        <v>1229</v>
       </c>
       <c r="G7">
-        <f>SUM(B7:F7)</f>
+        <f t="shared" si="0"/>
         <v>6236</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -689,157 +734,202 @@
       <c r="G10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1">
+        <v>565</v>
+      </c>
+      <c r="C11" s="2">
+        <v>95</v>
+      </c>
+      <c r="D11" s="2">
         <v>157</v>
       </c>
-      <c r="C11" s="2">
-        <v>120</v>
-      </c>
-      <c r="D11" s="2">
-        <v>277</v>
-      </c>
       <c r="E11" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="F11" s="3">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="G11">
-        <f>SUM(B11:F11)</f>
+        <f t="shared" ref="G11:G16" si="2">SUM(B11:F11)</f>
         <v>958</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>158</v>
-      </c>
-      <c r="C12" s="9">
-        <v>150</v>
-      </c>
-      <c r="D12" s="9">
-        <v>284</v>
-      </c>
-      <c r="E12" s="9">
-        <v>239</v>
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <v>675</v>
+      </c>
+      <c r="D12">
+        <v>112</v>
+      </c>
+      <c r="E12">
+        <v>96</v>
       </c>
       <c r="F12" s="5">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="G12">
-        <f>SUM(B12:F12)</f>
+        <f t="shared" si="2"/>
         <v>1024</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="4">
-        <v>267</v>
-      </c>
-      <c r="C13" s="9">
-        <v>252</v>
-      </c>
-      <c r="D13" s="9">
-        <v>494</v>
-      </c>
-      <c r="E13" s="9">
-        <v>393</v>
+        <v>117</v>
+      </c>
+      <c r="C13">
+        <v>142</v>
+      </c>
+      <c r="D13">
+        <v>1142</v>
+      </c>
+      <c r="E13">
+        <v>184</v>
       </c>
       <c r="F13" s="5">
-        <v>368</v>
+        <v>189</v>
       </c>
       <c r="G13">
-        <f>SUM(B13:F13)</f>
+        <f t="shared" si="2"/>
         <v>1774</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>203</v>
-      </c>
-      <c r="C14" s="9">
-        <v>186</v>
-      </c>
-      <c r="D14" s="9">
-        <v>308</v>
-      </c>
-      <c r="E14" s="9">
-        <v>280</v>
+        <v>123</v>
+      </c>
+      <c r="C14">
+        <v>96</v>
+      </c>
+      <c r="D14">
+        <v>163</v>
+      </c>
+      <c r="E14">
+        <v>732</v>
       </c>
       <c r="F14" s="5">
-        <v>256</v>
+        <v>119</v>
       </c>
       <c r="G14">
-        <f>SUM(B14:F14)</f>
+        <f t="shared" si="2"/>
         <v>1233</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="6">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="C15" s="7">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7">
-        <v>321</v>
+        <v>183</v>
       </c>
       <c r="E15" s="7">
-        <v>267</v>
+        <v>117</v>
       </c>
       <c r="F15" s="8">
-        <v>253</v>
+        <v>828</v>
       </c>
       <c r="G15">
-        <f>SUM(B15:F15)</f>
+        <f t="shared" si="2"/>
         <v>1247</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16">
         <f>SUM(B11:B15)</f>
-        <v>1012</v>
+        <v>949</v>
       </c>
       <c r="C16">
         <f>SUM(C11:C15)</f>
-        <v>887</v>
+        <v>1050</v>
       </c>
       <c r="D16">
         <f>SUM(D11:D15)</f>
-        <v>1684</v>
+        <v>1757</v>
       </c>
       <c r="E16">
         <f>SUM(E11:E15)</f>
-        <v>1390</v>
+        <v>1208</v>
       </c>
       <c r="F16">
         <f>SUM(F11:F15)</f>
-        <v>1263</v>
+        <v>1272</v>
       </c>
       <c r="G16">
-        <f>SUM(B16:F16)</f>
+        <f t="shared" si="2"/>
         <v>6236</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -861,13 +951,16 @@
       <c r="G19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1">
-        <v>703</v>
+        <v>743</v>
       </c>
       <c r="C20" s="2">
         <v>67</v>
@@ -876,94 +969,122 @@
         <v>13</v>
       </c>
       <c r="E20" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F20" s="3">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G20">
-        <f>SUM(B20:F20)</f>
+        <f t="shared" ref="G20:G25" si="3">SUM(B20:F20)</f>
         <v>958</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="4">
-        <v>230</v>
-      </c>
-      <c r="C21" s="9">
-        <v>459</v>
-      </c>
-      <c r="D21" s="9">
+        <v>123</v>
+      </c>
+      <c r="C21">
+        <v>586</v>
+      </c>
+      <c r="D21">
         <v>23</v>
       </c>
-      <c r="E21" s="9">
-        <v>128</v>
+      <c r="E21">
+        <v>148</v>
       </c>
       <c r="F21" s="5">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="G21">
-        <f>SUM(B21:F21)</f>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="4">
-        <v>114</v>
-      </c>
-      <c r="C22" s="9">
+        <v>94</v>
+      </c>
+      <c r="C22">
         <v>42</v>
       </c>
-      <c r="D22" s="9">
-        <v>1432</v>
-      </c>
-      <c r="E22" s="9">
-        <v>142</v>
+      <c r="D22">
+        <v>1472</v>
+      </c>
+      <c r="E22">
+        <v>122</v>
       </c>
       <c r="F22" s="5">
         <v>44</v>
       </c>
       <c r="G22">
-        <f>SUM(B22:F22)</f>
+        <f t="shared" si="3"/>
         <v>1774</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="4">
         <v>122</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23">
         <v>54</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23">
         <v>42</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23">
         <v>864</v>
       </c>
       <c r="F23" s="5">
         <v>151</v>
       </c>
       <c r="G23">
-        <f>SUM(B23:F23)</f>
+        <f t="shared" si="3"/>
         <v>1233</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="6">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="C24" s="7">
         <v>129</v>
@@ -972,46 +1093,60 @@
         <v>21</v>
       </c>
       <c r="E24" s="7">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="F24" s="8">
-        <v>642</v>
+        <v>782</v>
       </c>
       <c r="G24">
-        <f>SUM(B24:F24)</f>
+        <f t="shared" si="3"/>
         <v>1247</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25">
         <f>SUM(B20:B24)</f>
-        <v>1396</v>
+        <v>1209</v>
       </c>
       <c r="C25">
         <f>SUM(C20:C24)</f>
-        <v>751</v>
+        <v>878</v>
       </c>
       <c r="D25">
         <f>SUM(D20:D24)</f>
-        <v>1531</v>
+        <v>1571</v>
       </c>
       <c r="E25">
         <f>SUM(E20:E24)</f>
-        <v>1454</v>
+        <v>1394</v>
       </c>
       <c r="F25">
         <f>SUM(F20:F24)</f>
-        <v>1104</v>
+        <v>1184</v>
       </c>
       <c r="G25">
-        <f>SUM(B25:F25)</f>
+        <f t="shared" si="3"/>
         <v>6236</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1033,157 +1168,202 @@
       <c r="G28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="1">
-        <v>167</v>
+        <v>616</v>
       </c>
       <c r="C29" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="D29" s="2">
-        <v>251</v>
+        <v>111</v>
       </c>
       <c r="E29" s="2">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="F29" s="3">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="G29">
-        <f>SUM(B29:F29)</f>
+        <f t="shared" ref="G29:G34" si="4">SUM(B29:F29)</f>
         <v>958</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="4">
-        <v>181</v>
-      </c>
-      <c r="C30" s="9">
-        <v>143</v>
-      </c>
-      <c r="D30" s="9">
-        <v>289</v>
-      </c>
-      <c r="E30" s="9">
-        <v>222</v>
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>803</v>
+      </c>
+      <c r="D30">
+        <v>89</v>
+      </c>
+      <c r="E30">
+        <v>52</v>
       </c>
       <c r="F30" s="5">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="G30">
-        <f>SUM(B30:F30)</f>
+        <f t="shared" si="4"/>
         <v>1024</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="4">
-        <v>307</v>
-      </c>
-      <c r="C31" s="9">
-        <v>265</v>
-      </c>
-      <c r="D31" s="9">
-        <v>464</v>
-      </c>
-      <c r="E31" s="9">
-        <v>408</v>
+        <v>137</v>
+      </c>
+      <c r="C31">
+        <v>129</v>
+      </c>
+      <c r="D31">
+        <v>1119</v>
+      </c>
+      <c r="E31">
+        <v>178</v>
       </c>
       <c r="F31" s="5">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="G31">
-        <f>SUM(B31:F31)</f>
+        <f t="shared" si="4"/>
         <v>1774</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="4">
-        <v>215</v>
-      </c>
-      <c r="C32" s="9">
-        <v>163</v>
-      </c>
-      <c r="D32" s="9">
-        <v>337</v>
-      </c>
-      <c r="E32" s="9">
-        <v>275</v>
+        <v>65</v>
+      </c>
+      <c r="C32">
+        <v>83</v>
+      </c>
+      <c r="D32">
+        <v>177</v>
+      </c>
+      <c r="E32">
+        <v>815</v>
       </c>
       <c r="F32" s="5">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c r="G32">
-        <f>SUM(B32:F32)</f>
+        <f t="shared" si="4"/>
         <v>1233</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="6">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="C33" s="7">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="D33" s="7">
-        <v>348</v>
+        <v>148</v>
       </c>
       <c r="E33" s="7">
-        <v>281</v>
+        <v>115</v>
       </c>
       <c r="F33" s="8">
-        <v>239</v>
+        <v>774</v>
       </c>
       <c r="G33">
-        <f>SUM(B33:F33)</f>
+        <f t="shared" si="4"/>
         <v>1247</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>8</v>
       </c>
       <c r="B34">
         <f>SUM(B29:B33)</f>
-        <v>1085</v>
+        <v>946</v>
       </c>
       <c r="C34">
         <f>SUM(C29:C33)</f>
-        <v>872</v>
+        <v>1235</v>
       </c>
       <c r="D34">
         <f>SUM(D29:D33)</f>
-        <v>1689</v>
+        <v>1644</v>
       </c>
       <c r="E34">
         <f>SUM(E29:E33)</f>
-        <v>1397</v>
+        <v>1231</v>
       </c>
       <c r="F34">
         <f>SUM(F29:F33)</f>
-        <v>1193</v>
+        <v>1180</v>
       </c>
       <c r="G34">
-        <f>SUM(B34:F34)</f>
+        <f t="shared" si="4"/>
         <v>6236</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1205,153 +1385,198 @@
       <c r="G37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="1">
-        <v>626</v>
+        <v>691</v>
       </c>
       <c r="C38" s="2">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D38" s="2">
         <v>39</v>
       </c>
       <c r="E38" s="2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="F38" s="3">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="G38">
-        <f>SUM(B38:F38)</f>
+        <f t="shared" ref="G38:G43" si="5">SUM(B38:F38)</f>
         <v>958</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="4">
-        <v>146</v>
-      </c>
-      <c r="C39" s="9">
-        <v>480</v>
-      </c>
-      <c r="D39" s="9">
+        <v>116</v>
+      </c>
+      <c r="C39">
+        <v>602</v>
+      </c>
+      <c r="D39">
         <v>46</v>
       </c>
-      <c r="E39" s="9">
-        <v>121</v>
+      <c r="E39">
+        <v>83</v>
       </c>
       <c r="F39" s="5">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="G39">
-        <f>SUM(B39:F39)</f>
+        <f t="shared" si="5"/>
         <v>1024</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="4">
-        <v>44</v>
-      </c>
-      <c r="C40" s="9">
-        <v>30</v>
-      </c>
-      <c r="D40" s="9">
-        <v>1563</v>
-      </c>
-      <c r="E40" s="9">
-        <v>91</v>
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <v>1581</v>
+      </c>
+      <c r="E40">
+        <v>81</v>
       </c>
       <c r="F40" s="5">
         <v>46</v>
       </c>
       <c r="G40">
-        <f>SUM(B40:F40)</f>
+        <f t="shared" si="5"/>
         <v>1774</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="4">
         <v>72</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41">
         <v>67</v>
       </c>
-      <c r="D41" s="9">
-        <v>66</v>
-      </c>
-      <c r="E41" s="9">
-        <v>876</v>
+      <c r="D41">
+        <v>56</v>
+      </c>
+      <c r="E41">
+        <v>946</v>
       </c>
       <c r="F41" s="5">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="G41">
-        <f>SUM(B41:F41)</f>
+        <f t="shared" si="5"/>
         <v>1233</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="6">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C42" s="7">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D42" s="7">
         <v>53</v>
       </c>
       <c r="E42" s="7">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="F42" s="8">
-        <v>721</v>
+        <v>781</v>
       </c>
       <c r="G42">
-        <f>SUM(B42:F42)</f>
+        <f t="shared" si="5"/>
         <v>1247</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>8</v>
       </c>
       <c r="B43">
         <f>SUM(B38:B42)</f>
-        <v>1020</v>
+        <v>1032</v>
       </c>
       <c r="C43">
         <f>SUM(C38:C42)</f>
-        <v>771</v>
+        <v>858</v>
       </c>
       <c r="D43">
         <f>SUM(D38:D42)</f>
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="E43">
         <f>SUM(E38:E42)</f>
-        <v>1408</v>
+        <v>1380</v>
       </c>
       <c r="F43">
         <f>SUM(F38:F42)</f>
-        <v>1270</v>
+        <v>1191</v>
       </c>
       <c r="G43">
-        <f>SUM(B43:F43)</f>
+        <f t="shared" si="5"/>
+        <v>6236</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
         <v>6236</v>
       </c>
     </row>
@@ -1364,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4250BAB4-792F-4AA2-8B21-C93E611E641D}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1389,87 +1614,87 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>172</v>
+        <v>779</v>
       </c>
       <c r="B2">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="E2">
-        <v>177</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="B3">
-        <v>146</v>
+        <v>715</v>
       </c>
       <c r="C3">
-        <v>263</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="E3">
-        <v>217</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>288</v>
+        <v>68</v>
       </c>
       <c r="B4">
-        <v>268</v>
+        <v>138</v>
       </c>
       <c r="C4">
-        <v>499</v>
+        <v>1279</v>
       </c>
       <c r="D4">
-        <v>389</v>
+        <v>169</v>
       </c>
       <c r="E4">
-        <v>330</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="B5">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="C5">
-        <v>334</v>
+        <v>104</v>
       </c>
       <c r="D5">
-        <v>274</v>
+        <v>833</v>
       </c>
       <c r="E5">
-        <v>255</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="B6">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>378</v>
+        <v>148</v>
       </c>
       <c r="D6">
-        <v>264</v>
+        <v>119</v>
       </c>
       <c r="E6">
-        <v>230</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -1482,7 +1707,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1506,87 +1731,87 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>565</v>
+      </c>
+      <c r="B2">
+        <v>95</v>
+      </c>
+      <c r="C2">
         <v>157</v>
       </c>
-      <c r="B2">
-        <v>120</v>
-      </c>
-      <c r="C2">
-        <v>277</v>
-      </c>
       <c r="D2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="E2">
-        <v>193</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="B3">
-        <v>150</v>
+        <v>675</v>
       </c>
       <c r="C3">
-        <v>284</v>
+        <v>112</v>
       </c>
       <c r="D3">
-        <v>239</v>
+        <v>96</v>
       </c>
       <c r="E3">
-        <v>193</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>267</v>
+        <v>117</v>
       </c>
       <c r="B4">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="C4">
-        <v>494</v>
+        <v>1142</v>
       </c>
       <c r="D4">
-        <v>393</v>
+        <v>184</v>
       </c>
       <c r="E4">
-        <v>368</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="B5">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="C5">
-        <v>308</v>
+        <v>163</v>
       </c>
       <c r="D5">
-        <v>280</v>
+        <v>732</v>
       </c>
       <c r="E5">
-        <v>256</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="B6">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="C6">
-        <v>321</v>
+        <v>183</v>
       </c>
       <c r="D6">
-        <v>267</v>
+        <v>117</v>
       </c>
       <c r="E6">
-        <v>253</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -1599,7 +1824,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1623,7 +1848,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>703</v>
+        <v>743</v>
       </c>
       <c r="B2">
         <v>67</v>
@@ -1632,41 +1857,41 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E2">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c r="B3">
-        <v>459</v>
+        <v>586</v>
       </c>
       <c r="C3">
         <v>23</v>
       </c>
       <c r="D3">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="E3">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B4">
         <v>42</v>
       </c>
       <c r="C4">
-        <v>1432</v>
+        <v>1472</v>
       </c>
       <c r="D4">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E4">
         <v>44</v>
@@ -1691,7 +1916,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>129</v>
@@ -1700,10 +1925,10 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="E6">
-        <v>642</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -1716,7 +1941,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1740,87 +1965,87 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>167</v>
+        <v>616</v>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="C2">
-        <v>251</v>
+        <v>111</v>
       </c>
       <c r="D2">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="E2">
-        <v>192</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>143</v>
+        <v>803</v>
       </c>
       <c r="C3">
-        <v>289</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>222</v>
+        <v>52</v>
       </c>
       <c r="E3">
-        <v>189</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>307</v>
+        <v>137</v>
       </c>
       <c r="B4">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="C4">
-        <v>464</v>
+        <v>1119</v>
       </c>
       <c r="D4">
-        <v>408</v>
+        <v>178</v>
       </c>
       <c r="E4">
-        <v>330</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="B5">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="C5">
-        <v>337</v>
+        <v>177</v>
       </c>
       <c r="D5">
-        <v>275</v>
+        <v>815</v>
       </c>
       <c r="E5">
-        <v>243</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="B6">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="C6">
-        <v>348</v>
+        <v>148</v>
       </c>
       <c r="D6">
-        <v>281</v>
+        <v>115</v>
       </c>
       <c r="E6">
-        <v>239</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -1832,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890D9B67-AC28-4F13-A388-D227C87EC7E9}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1857,50 +2082,50 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>626</v>
+        <v>691</v>
       </c>
       <c r="B2">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>39</v>
       </c>
       <c r="D2">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E2">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B3">
-        <v>480</v>
+        <v>602</v>
       </c>
       <c r="C3">
         <v>46</v>
       </c>
       <c r="D3">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="E3">
-        <v>231</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>1563</v>
+        <v>1581</v>
       </c>
       <c r="D4">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <v>46</v>
@@ -1914,30 +2139,30 @@
         <v>67</v>
       </c>
       <c r="C5">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>876</v>
+        <v>946</v>
       </c>
       <c r="E5">
-        <v>152</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B6">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C6">
         <v>53</v>
       </c>
       <c r="D6">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="E6">
-        <v>721</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -1946,6 +2171,1106 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0FA124-3DEB-4289-9DEA-4F7D11BB8308}">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>172</v>
+      </c>
+      <c r="C2" s="2">
+        <v>155</v>
+      </c>
+      <c r="D2" s="2">
+        <v>257</v>
+      </c>
+      <c r="E2" s="2">
+        <v>197</v>
+      </c>
+      <c r="F2" s="3">
+        <v>177</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G7" si="0">SUM(B2:F2)</f>
+        <v>958</v>
+      </c>
+      <c r="H2">
+        <f>J2-G2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>163</v>
+      </c>
+      <c r="C3">
+        <v>146</v>
+      </c>
+      <c r="D3">
+        <v>263</v>
+      </c>
+      <c r="E3">
+        <v>235</v>
+      </c>
+      <c r="F3" s="5">
+        <v>217</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H43" si="1">J3-G3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>288</v>
+      </c>
+      <c r="C4">
+        <v>268</v>
+      </c>
+      <c r="D4">
+        <v>499</v>
+      </c>
+      <c r="E4">
+        <v>389</v>
+      </c>
+      <c r="F4" s="5">
+        <v>330</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1774</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>208</v>
+      </c>
+      <c r="C5">
+        <v>162</v>
+      </c>
+      <c r="D5">
+        <v>334</v>
+      </c>
+      <c r="E5">
+        <v>274</v>
+      </c>
+      <c r="F5" s="5">
+        <v>255</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1233</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>212</v>
+      </c>
+      <c r="C6" s="7">
+        <v>163</v>
+      </c>
+      <c r="D6" s="7">
+        <v>378</v>
+      </c>
+      <c r="E6" s="7">
+        <v>264</v>
+      </c>
+      <c r="F6" s="8">
+        <v>230</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1247</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f>SUM(B2:B6)</f>
+        <v>1043</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C2:C6)</f>
+        <v>894</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D6)</f>
+        <v>1731</v>
+      </c>
+      <c r="E7">
+        <f>SUM(E2:E6)</f>
+        <v>1359</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F2:F6)</f>
+        <v>1209</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>6236</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>157</v>
+      </c>
+      <c r="C11" s="2">
+        <v>120</v>
+      </c>
+      <c r="D11" s="2">
+        <v>277</v>
+      </c>
+      <c r="E11" s="2">
+        <v>211</v>
+      </c>
+      <c r="F11" s="3">
+        <v>193</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G16" si="2">SUM(B11:F11)</f>
+        <v>958</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4">
+        <v>158</v>
+      </c>
+      <c r="C12">
+        <v>150</v>
+      </c>
+      <c r="D12">
+        <v>284</v>
+      </c>
+      <c r="E12">
+        <v>239</v>
+      </c>
+      <c r="F12" s="5">
+        <v>193</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>1024</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4">
+        <v>267</v>
+      </c>
+      <c r="C13">
+        <v>252</v>
+      </c>
+      <c r="D13">
+        <v>494</v>
+      </c>
+      <c r="E13">
+        <v>393</v>
+      </c>
+      <c r="F13" s="5">
+        <v>368</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>1774</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4">
+        <v>203</v>
+      </c>
+      <c r="C14">
+        <v>186</v>
+      </c>
+      <c r="D14">
+        <v>308</v>
+      </c>
+      <c r="E14">
+        <v>280</v>
+      </c>
+      <c r="F14" s="5">
+        <v>256</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1233</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6">
+        <v>227</v>
+      </c>
+      <c r="C15" s="7">
+        <v>179</v>
+      </c>
+      <c r="D15" s="7">
+        <v>321</v>
+      </c>
+      <c r="E15" s="7">
+        <v>267</v>
+      </c>
+      <c r="F15" s="8">
+        <v>253</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>1247</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <f>SUM(B11:B15)</f>
+        <v>1012</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C11:C15)</f>
+        <v>887</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D11:D15)</f>
+        <v>1684</v>
+      </c>
+      <c r="E16">
+        <f>SUM(E11:E15)</f>
+        <v>1390</v>
+      </c>
+      <c r="F16">
+        <f>SUM(F11:F15)</f>
+        <v>1263</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>6236</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>703</v>
+      </c>
+      <c r="C20" s="2">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2">
+        <v>92</v>
+      </c>
+      <c r="F20" s="3">
+        <v>83</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G25" si="3">SUM(B20:F20)</f>
+        <v>958</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4">
+        <v>230</v>
+      </c>
+      <c r="C21">
+        <v>459</v>
+      </c>
+      <c r="D21">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>128</v>
+      </c>
+      <c r="F21" s="5">
+        <v>184</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4">
+        <v>114</v>
+      </c>
+      <c r="C22">
+        <v>42</v>
+      </c>
+      <c r="D22">
+        <v>1432</v>
+      </c>
+      <c r="E22">
+        <v>142</v>
+      </c>
+      <c r="F22" s="5">
+        <v>44</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>1774</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4">
+        <v>122</v>
+      </c>
+      <c r="C23">
+        <v>54</v>
+      </c>
+      <c r="D23">
+        <v>42</v>
+      </c>
+      <c r="E23">
+        <v>864</v>
+      </c>
+      <c r="F23" s="5">
+        <v>151</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>1233</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="6">
+        <v>227</v>
+      </c>
+      <c r="C24" s="7">
+        <v>129</v>
+      </c>
+      <c r="D24" s="7">
+        <v>21</v>
+      </c>
+      <c r="E24" s="7">
+        <v>228</v>
+      </c>
+      <c r="F24" s="8">
+        <v>642</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>1247</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <f>SUM(B20:B24)</f>
+        <v>1396</v>
+      </c>
+      <c r="C25">
+        <f>SUM(C20:C24)</f>
+        <v>751</v>
+      </c>
+      <c r="D25">
+        <f>SUM(D20:D24)</f>
+        <v>1531</v>
+      </c>
+      <c r="E25">
+        <f>SUM(E20:E24)</f>
+        <v>1454</v>
+      </c>
+      <c r="F25">
+        <f>SUM(F20:F24)</f>
+        <v>1104</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>6236</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>167</v>
+      </c>
+      <c r="C29" s="2">
+        <v>137</v>
+      </c>
+      <c r="D29" s="2">
+        <v>251</v>
+      </c>
+      <c r="E29" s="2">
+        <v>211</v>
+      </c>
+      <c r="F29" s="3">
+        <v>192</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G34" si="4">SUM(B29:F29)</f>
+        <v>958</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4">
+        <v>181</v>
+      </c>
+      <c r="C30">
+        <v>143</v>
+      </c>
+      <c r="D30">
+        <v>289</v>
+      </c>
+      <c r="E30">
+        <v>222</v>
+      </c>
+      <c r="F30" s="5">
+        <v>189</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4">
+        <v>307</v>
+      </c>
+      <c r="C31">
+        <v>265</v>
+      </c>
+      <c r="D31">
+        <v>464</v>
+      </c>
+      <c r="E31">
+        <v>408</v>
+      </c>
+      <c r="F31" s="5">
+        <v>330</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>1774</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="4">
+        <v>215</v>
+      </c>
+      <c r="C32">
+        <v>163</v>
+      </c>
+      <c r="D32">
+        <v>337</v>
+      </c>
+      <c r="E32">
+        <v>275</v>
+      </c>
+      <c r="F32" s="5">
+        <v>243</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>1233</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="6">
+        <v>215</v>
+      </c>
+      <c r="C33" s="7">
+        <v>164</v>
+      </c>
+      <c r="D33" s="7">
+        <v>348</v>
+      </c>
+      <c r="E33" s="7">
+        <v>281</v>
+      </c>
+      <c r="F33" s="8">
+        <v>239</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>1247</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <f>SUM(B29:B33)</f>
+        <v>1085</v>
+      </c>
+      <c r="C34">
+        <f>SUM(C29:C33)</f>
+        <v>872</v>
+      </c>
+      <c r="D34">
+        <f>SUM(D29:D33)</f>
+        <v>1689</v>
+      </c>
+      <c r="E34">
+        <f>SUM(E29:E33)</f>
+        <v>1397</v>
+      </c>
+      <c r="F34">
+        <f>SUM(F29:F33)</f>
+        <v>1193</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>6236</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>651</v>
+      </c>
+      <c r="C38" s="2">
+        <v>72</v>
+      </c>
+      <c r="D38" s="2">
+        <v>39</v>
+      </c>
+      <c r="E38" s="2">
+        <v>81</v>
+      </c>
+      <c r="F38" s="3">
+        <v>115</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38:G43" si="5">SUM(B38:F38)</f>
+        <v>958</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4">
+        <v>146</v>
+      </c>
+      <c r="C39">
+        <v>490</v>
+      </c>
+      <c r="D39">
+        <v>46</v>
+      </c>
+      <c r="E39">
+        <v>121</v>
+      </c>
+      <c r="F39" s="5">
+        <v>221</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <v>1568</v>
+      </c>
+      <c r="E40">
+        <v>91</v>
+      </c>
+      <c r="F40" s="5">
+        <v>46</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>1774</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4">
+        <v>72</v>
+      </c>
+      <c r="C41">
+        <v>67</v>
+      </c>
+      <c r="D41">
+        <v>66</v>
+      </c>
+      <c r="E41">
+        <v>886</v>
+      </c>
+      <c r="F41" s="5">
+        <v>142</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>1233</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="6">
+        <v>132</v>
+      </c>
+      <c r="C42" s="7">
+        <v>102</v>
+      </c>
+      <c r="D42" s="7">
+        <v>53</v>
+      </c>
+      <c r="E42" s="7">
+        <v>219</v>
+      </c>
+      <c r="F42" s="8">
+        <v>741</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>1247</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <f>SUM(B38:B42)</f>
+        <v>1045</v>
+      </c>
+      <c r="C43">
+        <f>SUM(C38:C42)</f>
+        <v>756</v>
+      </c>
+      <c r="D43">
+        <f>SUM(D38:D42)</f>
+        <v>1772</v>
+      </c>
+      <c r="E43">
+        <f>SUM(E38:E42)</f>
+        <v>1398</v>
+      </c>
+      <c r="F43">
+        <f>SUM(F38:F42)</f>
+        <v>1265</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>6236</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>6236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02232884-B856-4883-AB8E-3A546A03DD3B}">
   <dimension ref="A1:AA43"/>
   <sheetViews>
@@ -2030,7 +3355,7 @@
         <v>108</v>
       </c>
       <c r="I2">
-        <f>SUM(B2:H2)</f>
+        <f t="shared" ref="I2:I7" si="0">SUM(B2:H2)</f>
         <v>958</v>
       </c>
       <c r="K2">
@@ -2111,35 +3436,35 @@
         <v>110</v>
       </c>
       <c r="I3">
-        <f>SUM(B3:H3)</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K6" si="0">B3+$Q3+$S3</f>
+        <f t="shared" ref="K3:K6" si="1">B3+$Q3+$S3</f>
         <v>163</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:O6" si="1">D3+$Q3+$S3</f>
+        <f t="shared" ref="L3:O6" si="2">D3+$Q3+$S3</f>
         <v>146</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>263</v>
       </c>
       <c r="N3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>235</v>
       </c>
       <c r="O3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>217</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q6" si="2">C3/5</f>
+        <f t="shared" ref="Q3:Q6" si="3">C3/5</f>
         <v>3</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S6" si="3">H3/5</f>
+        <f t="shared" ref="S3:S6" si="4">H3/5</f>
         <v>22</v>
       </c>
       <c r="U3">
@@ -2158,11 +3483,11 @@
         <v>217</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z6" si="4">SUM(U3:Y3)</f>
+        <f t="shared" ref="Z3:Z6" si="5">SUM(U3:Y3)</f>
         <v>1024</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA43" si="5">I3-Z3</f>
+        <f t="shared" ref="AA3:AA43" si="6">I3-Z3</f>
         <v>0</v>
       </c>
     </row>
@@ -2192,35 +3517,35 @@
         <v>228</v>
       </c>
       <c r="I4">
-        <f>SUM(B4:H4)</f>
+        <f t="shared" si="0"/>
         <v>1774</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>288</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>268</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>499</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>389</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>330</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="S4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45.6</v>
       </c>
       <c r="U4">
@@ -2239,11 +3564,11 @@
         <v>330</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1774</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2273,35 +3598,35 @@
         <v>140</v>
       </c>
       <c r="I5">
-        <f>SUM(B5:H5)</f>
+        <f t="shared" si="0"/>
         <v>1233</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>208.4</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>162.4</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>334.4</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>273.39999999999998</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>254.4</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
       <c r="S5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="U5">
@@ -2320,11 +3645,11 @@
         <v>255</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1233</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2354,35 +3679,35 @@
         <v>133</v>
       </c>
       <c r="I6">
-        <f>SUM(B6:H6)</f>
+        <f t="shared" si="0"/>
         <v>1247</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>211.6</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>162.6</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>377.6</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>264.60000000000002</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>230.6</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="S6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.6</v>
       </c>
       <c r="U6">
@@ -2401,11 +3726,11 @@
         <v>230</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1247</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2414,35 +3739,35 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>SUM(B2:B6)</f>
+        <f t="shared" ref="B7:H7" si="7">SUM(B2:B6)</f>
         <v>886</v>
       </c>
       <c r="C7">
-        <f>SUM(C2:C6)</f>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="D7">
-        <f>SUM(D2:D6)</f>
+        <f t="shared" si="7"/>
         <v>737</v>
       </c>
       <c r="E7">
-        <f>SUM(E2:E6)</f>
+        <f t="shared" si="7"/>
         <v>1574</v>
       </c>
       <c r="F7">
-        <f>SUM(F2:F6)</f>
+        <f t="shared" si="7"/>
         <v>1202</v>
       </c>
       <c r="G7">
-        <f>SUM(G2:G6)</f>
+        <f t="shared" si="7"/>
         <v>1052</v>
       </c>
       <c r="H7">
-        <f>SUM(H2:H6)</f>
+        <f t="shared" si="7"/>
         <v>719</v>
       </c>
       <c r="I7">
-        <f>SUM(B7:H7)</f>
+        <f t="shared" si="0"/>
         <v>6236</v>
       </c>
       <c r="U7">
@@ -2450,27 +3775,27 @@
         <v>1043</v>
       </c>
       <c r="V7">
-        <f t="shared" ref="V7:Z7" si="6">SUM(V2:V6)</f>
+        <f t="shared" ref="V7:Z7" si="8">SUM(V2:V6)</f>
         <v>894</v>
       </c>
       <c r="W7">
+        <f t="shared" si="8"/>
+        <v>1731</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="8"/>
+        <v>1359</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="8"/>
+        <v>1209</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="8"/>
+        <v>6236</v>
+      </c>
+      <c r="AA7">
         <f t="shared" si="6"/>
-        <v>1731</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="6"/>
-        <v>1359</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="6"/>
-        <v>1209</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="6"/>
-        <v>6236</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2549,7 +3874,7 @@
         <v>108</v>
       </c>
       <c r="I11">
-        <f>SUM(B11:H11)</f>
+        <f t="shared" ref="I11:I16" si="9">SUM(B11:H11)</f>
         <v>958</v>
       </c>
       <c r="K11">
@@ -2600,7 +3925,7 @@
         <v>958</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2630,35 +3955,35 @@
         <v>124</v>
       </c>
       <c r="I12">
-        <f>SUM(B12:H12)</f>
+        <f t="shared" si="9"/>
         <v>1024</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12:K15" si="7">B12+$Q12+$S12</f>
+        <f t="shared" ref="K12:K15" si="10">B12+$Q12+$S12</f>
         <v>157.60000000000002</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12:O15" si="8">D12+$Q12+$S12</f>
+        <f t="shared" ref="L12:O15" si="11">D12+$Q12+$S12</f>
         <v>149.6</v>
       </c>
       <c r="M12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>285.60000000000002</v>
       </c>
       <c r="N12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>238.60000000000002</v>
       </c>
       <c r="O12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>192.60000000000002</v>
       </c>
       <c r="Q12">
-        <f t="shared" ref="Q12:Q15" si="9">C12/5</f>
+        <f t="shared" ref="Q12:Q15" si="12">C12/5</f>
         <v>1.8</v>
       </c>
       <c r="S12">
-        <f t="shared" ref="S12:S15" si="10">H12/5</f>
+        <f t="shared" ref="S12:S15" si="13">H12/5</f>
         <v>24.8</v>
       </c>
       <c r="U12">
@@ -2677,11 +4002,11 @@
         <v>193</v>
       </c>
       <c r="Z12">
-        <f t="shared" ref="Z12:Z15" si="11">SUM(U12:Y12)</f>
+        <f t="shared" ref="Z12:Z15" si="14">SUM(U12:Y12)</f>
         <v>1024</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2711,35 +4036,35 @@
         <v>201</v>
       </c>
       <c r="I13">
-        <f>SUM(B13:H13)</f>
+        <f t="shared" si="9"/>
         <v>1774</v>
       </c>
       <c r="K13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>266.8</v>
       </c>
       <c r="L13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>252.8</v>
       </c>
       <c r="M13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>493.8</v>
       </c>
       <c r="N13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>392.8</v>
       </c>
       <c r="O13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>367.8</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3.6</v>
       </c>
       <c r="S13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>40.200000000000003</v>
       </c>
       <c r="U13">
@@ -2758,11 +4083,11 @@
         <v>368</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1774</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2792,35 +4117,35 @@
         <v>123</v>
       </c>
       <c r="I14">
-        <f>SUM(B14:H14)</f>
+        <f t="shared" si="9"/>
         <v>1233</v>
       </c>
       <c r="K14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>203.6</v>
       </c>
       <c r="L14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>186.6</v>
       </c>
       <c r="M14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>307.60000000000002</v>
       </c>
       <c r="N14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>279.60000000000002</v>
       </c>
       <c r="O14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>255.6</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="S14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.6</v>
       </c>
       <c r="U14">
@@ -2839,11 +4164,11 @@
         <v>256</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1233</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2873,23 +4198,23 @@
         <v>153</v>
       </c>
       <c r="I15">
-        <f>SUM(B15:H15)</f>
+        <f t="shared" si="9"/>
         <v>1247</v>
       </c>
       <c r="K15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>227</v>
       </c>
       <c r="L15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>179</v>
       </c>
       <c r="M15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>320</v>
       </c>
       <c r="N15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>268</v>
       </c>
       <c r="O15">
@@ -2897,11 +4222,11 @@
         <v>253</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.4</v>
       </c>
       <c r="S15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>30.6</v>
       </c>
       <c r="U15">
@@ -2920,11 +4245,11 @@
         <v>253</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1247</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2933,35 +4258,35 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <f>SUM(B11:B15)</f>
+        <f t="shared" ref="B16:H16" si="15">SUM(B11:B15)</f>
         <v>858</v>
       </c>
       <c r="C16">
-        <f>SUM(C11:C15)</f>
+        <f t="shared" si="15"/>
         <v>61</v>
       </c>
       <c r="D16">
-        <f>SUM(D11:D15)</f>
+        <f t="shared" si="15"/>
         <v>734</v>
       </c>
       <c r="E16">
-        <f>SUM(E11:E15)</f>
+        <f t="shared" si="15"/>
         <v>1530</v>
       </c>
       <c r="F16">
-        <f>SUM(F11:F15)</f>
+        <f t="shared" si="15"/>
         <v>1236</v>
       </c>
       <c r="G16">
-        <f>SUM(G11:G15)</f>
+        <f t="shared" si="15"/>
         <v>1108</v>
       </c>
       <c r="H16">
-        <f>SUM(H11:H15)</f>
+        <f t="shared" si="15"/>
         <v>709</v>
       </c>
       <c r="I16">
-        <f>SUM(B16:H16)</f>
+        <f t="shared" si="9"/>
         <v>6236</v>
       </c>
       <c r="U16">
@@ -2969,27 +4294,27 @@
         <v>1012</v>
       </c>
       <c r="V16">
-        <f t="shared" ref="V16:Z16" si="12">SUM(V11:V15)</f>
+        <f t="shared" ref="V16:Z16" si="16">SUM(V11:V15)</f>
         <v>887</v>
       </c>
       <c r="W16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1684</v>
       </c>
       <c r="X16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1390</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1263</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6236</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3068,7 +4393,7 @@
         <v>5</v>
       </c>
       <c r="I20">
-        <f>SUM(B20:H20)</f>
+        <f t="shared" ref="I20:I25" si="17">SUM(B20:H20)</f>
         <v>958</v>
       </c>
       <c r="K20">
@@ -3119,7 +4444,7 @@
         <v>958</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3149,35 +4474,35 @@
         <v>58</v>
       </c>
       <c r="I21">
-        <f>SUM(B21:H21)</f>
+        <f t="shared" si="17"/>
         <v>1024</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21:K24" si="13">B21+$Q21+$S21</f>
+        <f t="shared" ref="K21:K24" si="18">B21+$Q21+$S21</f>
         <v>229.79999999999998</v>
       </c>
       <c r="L21">
-        <f t="shared" ref="L21:O24" si="14">D21+$Q21+$S21</f>
+        <f t="shared" ref="L21:O24" si="19">D21+$Q21+$S21</f>
         <v>458.8</v>
       </c>
       <c r="M21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>23.799999999999997</v>
       </c>
       <c r="N21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>127.8</v>
       </c>
       <c r="O21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>183.79999999999998</v>
       </c>
       <c r="Q21">
-        <f t="shared" ref="Q21:Q24" si="15">C21/5</f>
+        <f t="shared" ref="Q21:Q24" si="20">C21/5</f>
         <v>1.2</v>
       </c>
       <c r="S21">
-        <f t="shared" ref="S21:S24" si="16">H21/5</f>
+        <f t="shared" ref="S21:S24" si="21">H21/5</f>
         <v>11.6</v>
       </c>
       <c r="U21">
@@ -3196,11 +4521,11 @@
         <v>184</v>
       </c>
       <c r="Z21">
-        <f t="shared" ref="Z21:Z24" si="17">SUM(U21:Y21)</f>
+        <f t="shared" ref="Z21:Z24" si="22">SUM(U21:Y21)</f>
         <v>1024</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3230,35 +4555,35 @@
         <v>24</v>
       </c>
       <c r="I22">
-        <f>SUM(B22:H22)</f>
+        <f t="shared" si="17"/>
         <v>1774</v>
       </c>
       <c r="K22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>113.8</v>
       </c>
       <c r="L22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>41.8</v>
       </c>
       <c r="M22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1432.8</v>
       </c>
       <c r="N22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>141.80000000000001</v>
       </c>
       <c r="O22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>43.8</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.8</v>
       </c>
       <c r="U22">
@@ -3277,11 +4602,11 @@
         <v>44</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>1774</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3311,35 +4636,35 @@
         <v>7</v>
       </c>
       <c r="I23">
-        <f>SUM(B23:H23)</f>
+        <f t="shared" si="17"/>
         <v>1233</v>
       </c>
       <c r="K23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>122</v>
       </c>
       <c r="L23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>54</v>
       </c>
       <c r="M23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>42</v>
       </c>
       <c r="N23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>864</v>
       </c>
       <c r="O23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>151</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>1.6</v>
       </c>
       <c r="S23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.4</v>
       </c>
       <c r="U23">
@@ -3358,11 +4683,11 @@
         <v>151</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>1233</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3392,23 +4717,23 @@
         <v>8</v>
       </c>
       <c r="I24">
-        <f>SUM(B24:H24)</f>
+        <f t="shared" si="17"/>
         <v>1247</v>
       </c>
       <c r="K24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>226.4</v>
       </c>
       <c r="L24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>128.4</v>
       </c>
       <c r="M24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>21.400000000000002</v>
       </c>
       <c r="N24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>228.4</v>
       </c>
       <c r="O24">
@@ -3416,11 +4741,11 @@
         <v>642.4</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.8</v>
       </c>
       <c r="S24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.6</v>
       </c>
       <c r="U24">
@@ -3439,11 +4764,11 @@
         <v>642</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>1247</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3452,35 +4777,35 @@
         <v>8</v>
       </c>
       <c r="B25">
-        <f>SUM(B20:B24)</f>
+        <f t="shared" ref="B25:H25" si="23">SUM(B20:B24)</f>
         <v>1368</v>
       </c>
       <c r="C25">
-        <f>SUM(C20:C24)</f>
+        <f t="shared" si="23"/>
         <v>34</v>
       </c>
       <c r="D25">
-        <f>SUM(D20:D24)</f>
+        <f t="shared" si="23"/>
         <v>723</v>
       </c>
       <c r="E25">
-        <f>SUM(E20:E24)</f>
+        <f t="shared" si="23"/>
         <v>1505</v>
       </c>
       <c r="F25">
-        <f>SUM(F20:F24)</f>
+        <f t="shared" si="23"/>
         <v>1427</v>
       </c>
       <c r="G25">
-        <f>SUM(G20:G24)</f>
+        <f t="shared" si="23"/>
         <v>1077</v>
       </c>
       <c r="H25">
-        <f>SUM(H20:H24)</f>
+        <f t="shared" si="23"/>
         <v>102</v>
       </c>
       <c r="I25">
-        <f>SUM(B25:H25)</f>
+        <f t="shared" si="17"/>
         <v>6236</v>
       </c>
       <c r="U25">
@@ -3488,27 +4813,27 @@
         <v>1396</v>
       </c>
       <c r="V25">
-        <f t="shared" ref="V25:Z25" si="18">SUM(V20:V24)</f>
+        <f t="shared" ref="V25:Z25" si="24">SUM(V20:V24)</f>
         <v>751</v>
       </c>
       <c r="W25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1531</v>
       </c>
       <c r="X25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1454</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1104</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>6236</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3587,7 +4912,7 @@
         <v>107</v>
       </c>
       <c r="I29">
-        <f>SUM(B29:H29)</f>
+        <f t="shared" ref="I29:I34" si="25">SUM(B29:H29)</f>
         <v>958</v>
       </c>
       <c r="K29">
@@ -3638,7 +4963,7 @@
         <v>958</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3668,35 +4993,35 @@
         <v>119</v>
       </c>
       <c r="I30">
-        <f>SUM(B30:H30)</f>
+        <f t="shared" si="25"/>
         <v>1024</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:K33" si="19">B30+$Q30+$S30</f>
+        <f t="shared" ref="K30:K33" si="26">B30+$Q30+$S30</f>
         <v>181.4</v>
       </c>
       <c r="L30">
-        <f t="shared" ref="L30:O33" si="20">D30+$Q30+$S30</f>
+        <f t="shared" ref="L30:O33" si="27">D30+$Q30+$S30</f>
         <v>142.4</v>
       </c>
       <c r="M30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>289.40000000000003</v>
       </c>
       <c r="N30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>221.4</v>
       </c>
       <c r="O30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>189.4</v>
       </c>
       <c r="Q30">
-        <f t="shared" ref="Q30:Q33" si="21">C30/5</f>
+        <f t="shared" ref="Q30:Q33" si="28">C30/5</f>
         <v>1.6</v>
       </c>
       <c r="S30">
-        <f t="shared" ref="S30:S33" si="22">H30/5</f>
+        <f t="shared" ref="S30:S33" si="29">H30/5</f>
         <v>23.8</v>
       </c>
       <c r="U30">
@@ -3715,11 +5040,11 @@
         <v>189</v>
       </c>
       <c r="Z30">
-        <f t="shared" ref="Z30:Z33" si="23">SUM(U30:Y30)</f>
+        <f t="shared" ref="Z30:Z33" si="30">SUM(U30:Y30)</f>
         <v>1024</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3749,35 +5074,35 @@
         <v>222</v>
       </c>
       <c r="I31">
-        <f>SUM(B31:H31)</f>
+        <f t="shared" si="25"/>
         <v>1774</v>
       </c>
       <c r="K31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>307.2</v>
       </c>
       <c r="L31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>264.2</v>
       </c>
       <c r="M31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>464.2</v>
       </c>
       <c r="N31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>408.2</v>
       </c>
       <c r="O31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>330.2</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>2.8</v>
       </c>
       <c r="S31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>44.4</v>
       </c>
       <c r="U31">
@@ -3796,11 +5121,11 @@
         <v>330</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>1774</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3830,35 +5155,35 @@
         <v>146</v>
       </c>
       <c r="I32">
-        <f>SUM(B32:H32)</f>
+        <f t="shared" si="25"/>
         <v>1233</v>
       </c>
       <c r="K32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>214.79999999999998</v>
       </c>
       <c r="L32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>162.79999999999998</v>
       </c>
       <c r="M32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>336.8</v>
       </c>
       <c r="N32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>274.8</v>
       </c>
       <c r="O32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>243.79999999999998</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1.6</v>
       </c>
       <c r="S32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>29.2</v>
       </c>
       <c r="U32">
@@ -3877,11 +5202,11 @@
         <v>243</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>1233</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3911,23 +5236,23 @@
         <v>152</v>
       </c>
       <c r="I33">
-        <f>SUM(B33:H33)</f>
+        <f t="shared" si="25"/>
         <v>1247</v>
       </c>
       <c r="K33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>214.8</v>
       </c>
       <c r="L33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>164.8</v>
       </c>
       <c r="M33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>347.79999999999995</v>
       </c>
       <c r="N33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>280.8</v>
       </c>
       <c r="O33">
@@ -3935,11 +5260,11 @@
         <v>238.8</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>2.4</v>
       </c>
       <c r="S33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>30.4</v>
       </c>
       <c r="U33">
@@ -3958,11 +5283,11 @@
         <v>239</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>1247</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3971,35 +5296,35 @@
         <v>8</v>
       </c>
       <c r="B34">
-        <f>SUM(B29:B33)</f>
+        <f t="shared" ref="B34:H34" si="31">SUM(B29:B33)</f>
         <v>926</v>
       </c>
       <c r="C34">
-        <f>SUM(C29:C33)</f>
+        <f t="shared" si="31"/>
         <v>51</v>
       </c>
       <c r="D34">
-        <f>SUM(D29:D33)</f>
+        <f t="shared" si="31"/>
         <v>712</v>
       </c>
       <c r="E34">
-        <f>SUM(E29:E33)</f>
+        <f t="shared" si="31"/>
         <v>1530</v>
       </c>
       <c r="F34">
-        <f>SUM(F29:F33)</f>
+        <f t="shared" si="31"/>
         <v>1237</v>
       </c>
       <c r="G34">
-        <f>SUM(G29:G33)</f>
+        <f t="shared" si="31"/>
         <v>1034</v>
       </c>
       <c r="H34">
-        <f>SUM(H29:H33)</f>
+        <f t="shared" si="31"/>
         <v>746</v>
       </c>
       <c r="I34">
-        <f>SUM(B34:H34)</f>
+        <f t="shared" si="25"/>
         <v>6236</v>
       </c>
       <c r="U34">
@@ -4007,27 +5332,27 @@
         <v>1085</v>
       </c>
       <c r="V34">
-        <f t="shared" ref="V34:Z34" si="24">SUM(V29:V33)</f>
+        <f t="shared" ref="V34:Z34" si="32">SUM(V29:V33)</f>
         <v>872</v>
       </c>
       <c r="W34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1689</v>
       </c>
       <c r="X34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1397</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1193</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>6236</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4106,7 +5431,7 @@
         <v>14</v>
       </c>
       <c r="I38">
-        <f>SUM(B38:H38)</f>
+        <f t="shared" ref="I38:I43" si="33">SUM(B38:H38)</f>
         <v>958</v>
       </c>
       <c r="K38">
@@ -4157,7 +5482,7 @@
         <v>958</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4187,35 +5512,35 @@
         <v>87</v>
       </c>
       <c r="I39">
-        <f>SUM(B39:H39)</f>
+        <f t="shared" si="33"/>
         <v>1024</v>
       </c>
       <c r="K39">
-        <f t="shared" ref="K39:K42" si="25">B39+$Q39+$S39</f>
+        <f t="shared" ref="K39:K42" si="34">B39+$Q39+$S39</f>
         <v>146.20000000000002</v>
       </c>
       <c r="L39">
-        <f t="shared" ref="L39:O42" si="26">D39+$Q39+$S39</f>
+        <f t="shared" ref="L39:O42" si="35">D39+$Q39+$S39</f>
         <v>480.2</v>
       </c>
       <c r="M39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>45.2</v>
       </c>
       <c r="N39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>121.19999999999999</v>
       </c>
       <c r="O39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>231.20000000000002</v>
       </c>
       <c r="Q39">
-        <f t="shared" ref="Q39:Q42" si="27">C39/5</f>
+        <f t="shared" ref="Q39:Q42" si="36">C39/5</f>
         <v>0.8</v>
       </c>
       <c r="S39">
-        <f t="shared" ref="S39:S42" si="28">H39/5</f>
+        <f t="shared" ref="S39:S42" si="37">H39/5</f>
         <v>17.399999999999999</v>
       </c>
       <c r="U39">
@@ -4234,11 +5559,11 @@
         <v>231</v>
       </c>
       <c r="Z39">
-        <f t="shared" ref="Z39:Z42" si="29">SUM(U39:Y39)</f>
+        <f t="shared" ref="Z39:Z42" si="38">SUM(U39:Y39)</f>
         <v>1024</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4268,35 +5593,35 @@
         <v>42</v>
       </c>
       <c r="I40">
-        <f>SUM(B40:H40)</f>
+        <f t="shared" si="33"/>
         <v>1774</v>
       </c>
       <c r="K40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>43.8</v>
       </c>
       <c r="L40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>29.799999999999997</v>
       </c>
       <c r="M40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>1562.8000000000002</v>
       </c>
       <c r="N40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>90.800000000000011</v>
       </c>
       <c r="O40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>46.8</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0.4</v>
       </c>
       <c r="S40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>8.4</v>
       </c>
       <c r="U40">
@@ -4315,11 +5640,11 @@
         <v>46</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>1774</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4349,35 +5674,35 @@
         <v>11</v>
       </c>
       <c r="I41">
-        <f>SUM(B41:H41)</f>
+        <f t="shared" si="33"/>
         <v>1233</v>
       </c>
       <c r="K41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>72.8</v>
       </c>
       <c r="L41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>66.8</v>
       </c>
       <c r="M41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>65.8</v>
       </c>
       <c r="N41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>875.80000000000007</v>
       </c>
       <c r="O41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>151.79999999999998</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0.6</v>
       </c>
       <c r="S41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="U41">
@@ -4396,11 +5721,11 @@
         <v>152</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>1233</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4430,23 +5755,23 @@
         <v>16</v>
       </c>
       <c r="I42">
-        <f>SUM(B42:H42)</f>
+        <f t="shared" si="33"/>
         <v>1247</v>
       </c>
       <c r="K42">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>132.6</v>
       </c>
       <c r="L42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>112.60000000000001</v>
       </c>
       <c r="M42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>52.6</v>
       </c>
       <c r="N42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>228.6</v>
       </c>
       <c r="O42">
@@ -4454,11 +5779,11 @@
         <v>720.6</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0.4</v>
       </c>
       <c r="S42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>3.2</v>
       </c>
       <c r="U42">
@@ -4477,11 +5802,11 @@
         <v>721</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>1247</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4490,35 +5815,35 @@
         <v>8</v>
       </c>
       <c r="B43">
-        <f>SUM(B38:B42)</f>
+        <f t="shared" ref="B43:H43" si="39">SUM(B38:B42)</f>
         <v>982</v>
       </c>
       <c r="C43">
-        <f>SUM(C38:C42)</f>
+        <f t="shared" si="39"/>
         <v>26</v>
       </c>
       <c r="D43">
-        <f>SUM(D38:D42)</f>
+        <f t="shared" si="39"/>
         <v>732</v>
       </c>
       <c r="E43">
-        <f>SUM(E38:E42)</f>
+        <f t="shared" si="39"/>
         <v>1727</v>
       </c>
       <c r="F43">
-        <f>SUM(F38:F42)</f>
+        <f t="shared" si="39"/>
         <v>1368</v>
       </c>
       <c r="G43">
-        <f>SUM(G38:G42)</f>
+        <f t="shared" si="39"/>
         <v>1231</v>
       </c>
       <c r="H43">
-        <f>SUM(H38:H42)</f>
+        <f t="shared" si="39"/>
         <v>170</v>
       </c>
       <c r="I43">
-        <f>SUM(B43:H43)</f>
+        <f t="shared" si="33"/>
         <v>6236</v>
       </c>
       <c r="U43">
@@ -4526,27 +5851,27 @@
         <v>1020</v>
       </c>
       <c r="V43">
-        <f t="shared" ref="V43:Z43" si="30">SUM(V38:V42)</f>
+        <f t="shared" ref="V43:Z43" si="40">SUM(V38:V42)</f>
         <v>771</v>
       </c>
       <c r="W43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>1767</v>
       </c>
       <c r="X43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>1408</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>1270</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>6236</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>

--- a/emotions/fer_experiments.xlsx
+++ b/emotions/fer_experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\my-study-python\emotions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9658EC4-2A9F-48DC-AC90-E03D94C092EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78B849E-D34A-4A6E-A8D2-9C6CD145DFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B38" sqref="B38:F42"/>
     </sheetView>
   </sheetViews>
@@ -526,19 +526,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>779</v>
+        <v>840</v>
       </c>
       <c r="C2" s="2">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G7" si="0">SUM(B2:F2)</f>
@@ -557,19 +557,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C3">
-        <v>715</v>
+        <v>805</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="F3" s="5">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
@@ -588,19 +588,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="D4">
-        <v>1279</v>
+        <v>1441</v>
       </c>
       <c r="E4">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="F4" s="5">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
@@ -619,19 +619,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D5">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E5">
-        <v>833</v>
+        <v>1003</v>
       </c>
       <c r="F5" s="5">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
@@ -650,19 +650,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D6" s="7">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E6" s="7">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="F6" s="8">
-        <v>865</v>
+        <v>1029</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -682,23 +682,23 @@
       </c>
       <c r="B7">
         <f>SUM(B2:B6)</f>
-        <v>1070</v>
+        <v>1015</v>
       </c>
       <c r="C7">
         <f>SUM(C2:C6)</f>
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="D7">
         <f>SUM(D2:D6)</f>
-        <v>1629</v>
+        <v>1653</v>
       </c>
       <c r="E7">
         <f>SUM(E2:E6)</f>
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="F7">
         <f>SUM(F2:F6)</f>
-        <v>1229</v>
+        <v>1275</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="B11" s="1">
-        <v>565</v>
+        <v>695</v>
       </c>
       <c r="C11" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F11" s="3">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G16" si="2">SUM(B11:F11)</f>
@@ -774,16 +774,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C12">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="D12">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="E12">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="F12" s="5">
         <v>74</v>
@@ -805,19 +805,19 @@
         <v>3</v>
       </c>
       <c r="B13" s="4">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="C13">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="D13">
-        <v>1142</v>
+        <v>1494</v>
       </c>
       <c r="E13">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="F13" s="5">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
@@ -836,19 +836,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C14">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D14">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E14">
-        <v>732</v>
+        <v>792</v>
       </c>
       <c r="F14" s="5">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
@@ -867,19 +867,19 @@
         <v>5</v>
       </c>
       <c r="B15" s="6">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C15" s="7">
         <v>42</v>
       </c>
       <c r="D15" s="7">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="E15" s="7">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="F15" s="8">
-        <v>828</v>
+        <v>898</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
@@ -899,23 +899,23 @@
       </c>
       <c r="B16">
         <f>SUM(B11:B15)</f>
-        <v>949</v>
+        <v>965</v>
       </c>
       <c r="C16">
         <f>SUM(C11:C15)</f>
-        <v>1050</v>
+        <v>1020</v>
       </c>
       <c r="D16">
         <f>SUM(D11:D15)</f>
-        <v>1757</v>
+        <v>1949</v>
       </c>
       <c r="E16">
         <f>SUM(E11:E15)</f>
-        <v>1208</v>
+        <v>1078</v>
       </c>
       <c r="F16">
         <f>SUM(F11:F15)</f>
-        <v>1272</v>
+        <v>1224</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
@@ -960,16 +960,16 @@
         <v>0</v>
       </c>
       <c r="B20" s="1">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="C20" s="2">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2">
         <v>13</v>
       </c>
       <c r="E20" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F20" s="3">
         <v>63</v>
@@ -991,19 +991,19 @@
         <v>2</v>
       </c>
       <c r="B21" s="4">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C21">
-        <v>586</v>
+        <v>660</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E21">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="F21" s="5">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
@@ -1025,13 +1025,13 @@
         <v>94</v>
       </c>
       <c r="C22">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>1472</v>
+        <v>1502</v>
       </c>
       <c r="E22">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="F22" s="5">
         <v>44</v>
@@ -1053,19 +1053,19 @@
         <v>4</v>
       </c>
       <c r="B23" s="4">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="C23">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>42</v>
       </c>
       <c r="E23">
-        <v>864</v>
+        <v>994</v>
       </c>
       <c r="F23" s="5">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
@@ -1084,19 +1084,19 @@
         <v>5</v>
       </c>
       <c r="B24" s="6">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C24" s="7">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="D24" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="7">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="F24" s="8">
-        <v>782</v>
+        <v>933</v>
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
@@ -1116,23 +1116,23 @@
       </c>
       <c r="B25">
         <f>SUM(B20:B24)</f>
-        <v>1209</v>
+        <v>1124</v>
       </c>
       <c r="C25">
         <f>SUM(C20:C24)</f>
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="D25">
         <f>SUM(D20:D24)</f>
-        <v>1571</v>
+        <v>1606</v>
       </c>
       <c r="E25">
         <f>SUM(E20:E24)</f>
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="F25">
         <f>SUM(F20:F24)</f>
-        <v>1184</v>
+        <v>1235</v>
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="1">
-        <v>616</v>
+        <v>692</v>
       </c>
       <c r="C29" s="2">
         <v>97</v>
       </c>
       <c r="D29" s="2">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="E29" s="2">
         <v>71</v>
@@ -1239,19 +1239,19 @@
         <v>3</v>
       </c>
       <c r="B31" s="4">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="C31">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D31">
-        <v>1119</v>
+        <v>1520</v>
       </c>
       <c r="E31">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="F31" s="5">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
@@ -1273,13 +1273,13 @@
         <v>65</v>
       </c>
       <c r="C32">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D32">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="E32">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="F32" s="5">
         <v>93</v>
@@ -1301,19 +1301,19 @@
         <v>5</v>
       </c>
       <c r="B33" s="6">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C33" s="7">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="D33" s="7">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="E33" s="7">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="F33" s="8">
-        <v>774</v>
+        <v>984</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
@@ -1333,23 +1333,23 @@
       </c>
       <c r="B34">
         <f>SUM(B29:B33)</f>
-        <v>946</v>
+        <v>879</v>
       </c>
       <c r="C34">
         <f>SUM(C29:C33)</f>
-        <v>1235</v>
+        <v>1097</v>
       </c>
       <c r="D34">
         <f>SUM(D29:D33)</f>
-        <v>1644</v>
+        <v>1879</v>
       </c>
       <c r="E34">
         <f>SUM(E29:E33)</f>
-        <v>1231</v>
+        <v>1121</v>
       </c>
       <c r="F34">
         <f>SUM(F29:F33)</f>
-        <v>1180</v>
+        <v>1260</v>
       </c>
       <c r="G34">
         <f t="shared" si="4"/>
@@ -1394,19 +1394,19 @@
         <v>0</v>
       </c>
       <c r="B38" s="1">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="C38" s="2">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D38" s="2">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E38" s="2">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F38" s="3">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G38">
         <f t="shared" ref="G38:G43" si="5">SUM(B38:F38)</f>
@@ -1425,19 +1425,19 @@
         <v>2</v>
       </c>
       <c r="B39" s="4">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C39">
-        <v>602</v>
+        <v>730</v>
       </c>
       <c r="D39">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E39">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F39" s="5">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="G39">
         <f t="shared" si="5"/>
@@ -1456,16 +1456,16 @@
         <v>3</v>
       </c>
       <c r="B40" s="4">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C40">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>1581</v>
+        <v>1631</v>
       </c>
       <c r="E40">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F40" s="5">
         <v>46</v>
@@ -1487,19 +1487,19 @@
         <v>4</v>
       </c>
       <c r="B41" s="4">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>57</v>
+      </c>
+      <c r="D41">
+        <v>36</v>
+      </c>
+      <c r="E41">
+        <v>1026</v>
+      </c>
+      <c r="F41" s="5">
         <v>72</v>
-      </c>
-      <c r="C41">
-        <v>67</v>
-      </c>
-      <c r="D41">
-        <v>56</v>
-      </c>
-      <c r="E41">
-        <v>946</v>
-      </c>
-      <c r="F41" s="5">
-        <v>92</v>
       </c>
       <c r="G41">
         <f t="shared" si="5"/>
@@ -1518,19 +1518,19 @@
         <v>5</v>
       </c>
       <c r="B42" s="6">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C42" s="7">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D42" s="7">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E42" s="7">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="F42" s="8">
-        <v>781</v>
+        <v>919</v>
       </c>
       <c r="G42">
         <f t="shared" si="5"/>
@@ -1550,23 +1550,23 @@
       </c>
       <c r="B43">
         <f>SUM(B38:B42)</f>
-        <v>1032</v>
+        <v>974</v>
       </c>
       <c r="C43">
         <f>SUM(C38:C42)</f>
-        <v>858</v>
+        <v>944</v>
       </c>
       <c r="D43">
         <f>SUM(D38:D42)</f>
-        <v>1775</v>
+        <v>1785</v>
       </c>
       <c r="E43">
         <f>SUM(E38:E42)</f>
-        <v>1380</v>
+        <v>1310</v>
       </c>
       <c r="F43">
         <f>SUM(F38:F42)</f>
-        <v>1191</v>
+        <v>1223</v>
       </c>
       <c r="G43">
         <f t="shared" si="5"/>
@@ -1614,87 +1614,87 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>779</v>
+        <v>840</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B3">
-        <v>715</v>
+        <v>805</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="E3">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="C4">
-        <v>1279</v>
+        <v>1441</v>
       </c>
       <c r="D4">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>120</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>833</v>
+        <v>1003</v>
       </c>
       <c r="E5">
-        <v>125</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="E6">
-        <v>865</v>
+        <v>1029</v>
       </c>
     </row>
   </sheetData>
@@ -1731,33 +1731,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>565</v>
+        <v>695</v>
       </c>
       <c r="B2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C2">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="D2">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E2">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B3">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="C3">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>74</v>
@@ -1765,53 +1765,53 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="B4">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>1142</v>
+        <v>1494</v>
       </c>
       <c r="D4">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="E4">
-        <v>189</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B5">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C5">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D5">
-        <v>732</v>
+        <v>792</v>
       </c>
       <c r="E5">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>42</v>
       </c>
       <c r="C6">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="D6">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="E6">
-        <v>828</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -1848,16 +1848,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>13</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E2">
         <v>63</v>
@@ -1865,19 +1865,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B3">
-        <v>586</v>
+        <v>660</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E3">
-        <v>144</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1885,13 +1885,13 @@
         <v>94</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>1472</v>
+        <v>1502</v>
       </c>
       <c r="D4">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="E4">
         <v>44</v>
@@ -1899,36 +1899,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>42</v>
       </c>
       <c r="D5">
-        <v>864</v>
+        <v>994</v>
       </c>
       <c r="E5">
-        <v>151</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B6">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="E6">
-        <v>782</v>
+        <v>933</v>
       </c>
     </row>
   </sheetData>
@@ -1941,7 +1941,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E6"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1965,13 +1965,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>616</v>
+        <v>692</v>
       </c>
       <c r="B2">
         <v>97</v>
       </c>
       <c r="C2">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>71</v>
@@ -1999,19 +1999,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="C4">
-        <v>1119</v>
+        <v>1520</v>
       </c>
       <c r="D4">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="E4">
-        <v>211</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -2019,13 +2019,13 @@
         <v>65</v>
       </c>
       <c r="B5">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C5">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="D5">
-        <v>815</v>
+        <v>865</v>
       </c>
       <c r="E5">
         <v>93</v>
@@ -2033,19 +2033,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="C6">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="E6">
-        <v>774</v>
+        <v>984</v>
       </c>
     </row>
   </sheetData>
@@ -2058,7 +2058,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2082,50 +2082,50 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E2">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="B3">
-        <v>602</v>
+        <v>730</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D3">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E3">
-        <v>177</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>1581</v>
+        <v>1631</v>
       </c>
       <c r="D4">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>46</v>
@@ -2133,36 +2133,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>57</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>1026</v>
+      </c>
+      <c r="E5">
         <v>72</v>
-      </c>
-      <c r="B5">
-        <v>67</v>
-      </c>
-      <c r="C5">
-        <v>56</v>
-      </c>
-      <c r="D5">
-        <v>946</v>
-      </c>
-      <c r="E5">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B6">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>781</v>
+        <v>919</v>
       </c>
     </row>
   </sheetData>

--- a/emotions/fer_experiments.xlsx
+++ b/emotions/fer_experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\my-study-python\emotions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78B849E-D34A-4A6E-A8D2-9C6CD145DFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9076EE3E-D1AB-427B-B968-0ABF393123A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FER-2013" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -207,6 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:F42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -526,19 +527,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>840</v>
+        <v>881</v>
       </c>
       <c r="C2" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G7" si="0">SUM(B2:F2)</f>
@@ -557,19 +558,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>38</v>
-      </c>
-      <c r="C3">
-        <v>805</v>
-      </c>
-      <c r="D3">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>81</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="9">
+        <v>872</v>
+      </c>
+      <c r="D3" s="9">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9">
+        <v>60</v>
       </c>
       <c r="F3" s="5">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
@@ -588,19 +589,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>48</v>
-      </c>
-      <c r="C4">
-        <v>103</v>
-      </c>
-      <c r="D4">
-        <v>1441</v>
-      </c>
-      <c r="E4">
-        <v>99</v>
+        <v>35</v>
+      </c>
+      <c r="C4" s="9">
+        <v>86</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1511</v>
+      </c>
+      <c r="E4" s="9">
+        <v>69</v>
       </c>
       <c r="F4" s="5">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
@@ -619,19 +620,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>43</v>
-      </c>
-      <c r="C5">
-        <v>58</v>
-      </c>
-      <c r="D5">
-        <v>64</v>
-      </c>
-      <c r="E5">
-        <v>1003</v>
+        <v>27</v>
+      </c>
+      <c r="C5" s="9">
+        <v>44</v>
+      </c>
+      <c r="D5" s="9">
+        <v>44</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1063</v>
       </c>
       <c r="F5" s="5">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
@@ -650,22 +651,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E6" s="7">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F6" s="8">
-        <v>1029</v>
+        <v>1089</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:F6)</f>
         <v>1247</v>
       </c>
       <c r="H6">
@@ -682,23 +683,23 @@
       </c>
       <c r="B7">
         <f>SUM(B2:B6)</f>
-        <v>1015</v>
+        <v>991</v>
       </c>
       <c r="C7">
         <f>SUM(C2:C6)</f>
-        <v>1014</v>
+        <v>1047</v>
       </c>
       <c r="D7">
         <f>SUM(D2:D6)</f>
-        <v>1653</v>
+        <v>1637</v>
       </c>
       <c r="E7">
         <f>SUM(E2:E6)</f>
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="F7">
         <f>SUM(F2:F6)</f>
-        <v>1275</v>
+        <v>1292</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -743,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="B11" s="1">
-        <v>695</v>
+        <v>825</v>
       </c>
       <c r="C11" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F11" s="3">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G16" si="2">SUM(B11:F11)</f>
@@ -774,19 +775,19 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>47</v>
-      </c>
-      <c r="C12">
-        <v>775</v>
-      </c>
-      <c r="D12">
-        <v>72</v>
-      </c>
-      <c r="E12">
-        <v>56</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="9">
+        <v>885</v>
+      </c>
+      <c r="D12" s="9">
+        <v>22</v>
+      </c>
+      <c r="E12" s="9">
+        <v>42</v>
       </c>
       <c r="F12" s="5">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
@@ -805,19 +806,19 @@
         <v>3</v>
       </c>
       <c r="B13" s="4">
-        <v>53</v>
-      </c>
-      <c r="C13">
-        <v>42</v>
-      </c>
-      <c r="D13">
-        <v>1494</v>
-      </c>
-      <c r="E13">
-        <v>84</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="9">
+        <v>22</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1584</v>
+      </c>
+      <c r="E13" s="9">
+        <v>64</v>
       </c>
       <c r="F13" s="5">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
@@ -836,19 +837,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>103</v>
-      </c>
-      <c r="C14">
-        <v>86</v>
-      </c>
-      <c r="D14">
-        <v>143</v>
-      </c>
-      <c r="E14">
-        <v>792</v>
+        <v>84</v>
+      </c>
+      <c r="C14" s="9">
+        <v>68</v>
+      </c>
+      <c r="D14" s="9">
+        <v>30</v>
+      </c>
+      <c r="E14" s="9">
+        <v>963</v>
       </c>
       <c r="F14" s="5">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
@@ -870,16 +871,16 @@
         <v>67</v>
       </c>
       <c r="C15" s="7">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="E15" s="7">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F15" s="8">
-        <v>898</v>
+        <v>1025</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
@@ -899,23 +900,23 @@
       </c>
       <c r="B16">
         <f>SUM(B11:B15)</f>
-        <v>965</v>
+        <v>1028</v>
       </c>
       <c r="C16">
         <f>SUM(C11:C15)</f>
-        <v>1020</v>
+        <v>1056</v>
       </c>
       <c r="D16">
         <f>SUM(D11:D15)</f>
-        <v>1949</v>
+        <v>1678</v>
       </c>
       <c r="E16">
         <f>SUM(E11:E15)</f>
-        <v>1078</v>
+        <v>1202</v>
       </c>
       <c r="F16">
         <f>SUM(F11:F15)</f>
-        <v>1224</v>
+        <v>1272</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
@@ -960,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="1">
-        <v>748</v>
+        <v>858</v>
       </c>
       <c r="C20" s="2">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="F20" s="3">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="G20">
         <f t="shared" ref="G20:G25" si="3">SUM(B20:F20)</f>
@@ -991,19 +992,19 @@
         <v>2</v>
       </c>
       <c r="B21" s="4">
-        <v>103</v>
-      </c>
-      <c r="C21">
-        <v>660</v>
-      </c>
-      <c r="D21">
-        <v>29</v>
-      </c>
-      <c r="E21">
-        <v>128</v>
+        <v>73</v>
+      </c>
+      <c r="C21" s="9">
+        <v>802</v>
+      </c>
+      <c r="D21" s="9">
+        <v>9</v>
+      </c>
+      <c r="E21" s="9">
+        <v>59</v>
       </c>
       <c r="F21" s="5">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
@@ -1022,19 +1023,19 @@
         <v>3</v>
       </c>
       <c r="B22" s="4">
-        <v>94</v>
-      </c>
-      <c r="C22">
-        <v>52</v>
-      </c>
-      <c r="D22">
-        <v>1502</v>
-      </c>
-      <c r="E22">
-        <v>82</v>
+        <v>60</v>
+      </c>
+      <c r="C22" s="9">
+        <v>32</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1602</v>
+      </c>
+      <c r="E22" s="9">
+        <v>42</v>
       </c>
       <c r="F22" s="5">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
@@ -1053,19 +1054,19 @@
         <v>4</v>
       </c>
       <c r="B23" s="4">
-        <v>72</v>
-      </c>
-      <c r="C23">
-        <v>34</v>
-      </c>
-      <c r="D23">
-        <v>42</v>
-      </c>
-      <c r="E23">
-        <v>994</v>
+        <v>54</v>
+      </c>
+      <c r="C23" s="9">
+        <v>19</v>
+      </c>
+      <c r="D23" s="9">
+        <v>12</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1086</v>
       </c>
       <c r="F23" s="5">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
@@ -1084,19 +1085,19 @@
         <v>5</v>
       </c>
       <c r="B24" s="6">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C24" s="7">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D24" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E24" s="7">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="F24" s="8">
-        <v>933</v>
+        <v>1013</v>
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
@@ -1116,23 +1117,23 @@
       </c>
       <c r="B25">
         <f>SUM(B20:B24)</f>
-        <v>1124</v>
+        <v>1142</v>
       </c>
       <c r="C25">
         <f>SUM(C20:C24)</f>
-        <v>872</v>
+        <v>919</v>
       </c>
       <c r="D25">
         <f>SUM(D20:D24)</f>
-        <v>1606</v>
+        <v>1636</v>
       </c>
       <c r="E25">
         <f>SUM(E20:E24)</f>
-        <v>1399</v>
+        <v>1302</v>
       </c>
       <c r="F25">
         <f>SUM(F20:F24)</f>
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
@@ -1177,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="B29" s="1">
-        <v>692</v>
+        <v>822</v>
       </c>
       <c r="C29" s="2">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E29" s="2">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F29" s="3">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="G29">
         <f t="shared" ref="G29:G34" si="4">SUM(B29:F29)</f>
@@ -1208,19 +1209,19 @@
         <v>2</v>
       </c>
       <c r="B30" s="4">
-        <v>41</v>
-      </c>
-      <c r="C30">
-        <v>803</v>
-      </c>
-      <c r="D30">
-        <v>89</v>
-      </c>
-      <c r="E30">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="C30" s="9">
+        <v>920</v>
+      </c>
+      <c r="D30" s="9">
+        <v>18</v>
+      </c>
+      <c r="E30" s="9">
+        <v>38</v>
       </c>
       <c r="F30" s="5">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G30">
         <f t="shared" si="4"/>
@@ -1239,19 +1240,19 @@
         <v>3</v>
       </c>
       <c r="B31" s="4">
-        <v>34</v>
-      </c>
-      <c r="C31">
-        <v>71</v>
-      </c>
-      <c r="D31">
-        <v>1520</v>
-      </c>
-      <c r="E31">
-        <v>68</v>
+        <v>20</v>
+      </c>
+      <c r="C31" s="9">
+        <v>30</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1631</v>
+      </c>
+      <c r="E31" s="9">
+        <v>52</v>
       </c>
       <c r="F31" s="5">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
@@ -1270,19 +1271,19 @@
         <v>4</v>
       </c>
       <c r="B32" s="4">
-        <v>65</v>
-      </c>
-      <c r="C32">
-        <v>73</v>
-      </c>
-      <c r="D32">
-        <v>137</v>
-      </c>
-      <c r="E32">
-        <v>865</v>
+        <v>45</v>
+      </c>
+      <c r="C32" s="9">
+        <v>63</v>
+      </c>
+      <c r="D32" s="9">
+        <v>27</v>
+      </c>
+      <c r="E32" s="9">
+        <v>995</v>
       </c>
       <c r="F32" s="5">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G32">
         <f t="shared" si="4"/>
@@ -1301,19 +1302,19 @@
         <v>5</v>
       </c>
       <c r="B33" s="6">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C33" s="7">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D33" s="7">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="E33" s="7">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F33" s="8">
-        <v>984</v>
+        <v>1095</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
@@ -1333,23 +1334,23 @@
       </c>
       <c r="B34">
         <f>SUM(B29:B33)</f>
-        <v>879</v>
+        <v>943</v>
       </c>
       <c r="C34">
         <f>SUM(C29:C33)</f>
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="D34">
         <f>SUM(D29:D33)</f>
-        <v>1879</v>
+        <v>1709</v>
       </c>
       <c r="E34">
         <f>SUM(E29:E33)</f>
-        <v>1121</v>
+        <v>1191</v>
       </c>
       <c r="F34">
         <f>SUM(F29:F33)</f>
-        <v>1260</v>
+        <v>1301</v>
       </c>
       <c r="G34">
         <f t="shared" si="4"/>
@@ -1394,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="B38" s="1">
-        <v>713</v>
+        <v>795</v>
       </c>
       <c r="C38" s="2">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E38" s="2">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F38" s="3">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="G38">
         <f t="shared" ref="G38:G43" si="5">SUM(B38:F38)</f>
@@ -1425,19 +1426,19 @@
         <v>2</v>
       </c>
       <c r="B39" s="4">
-        <v>86</v>
-      </c>
-      <c r="C39">
-        <v>730</v>
-      </c>
-      <c r="D39">
-        <v>41</v>
-      </c>
-      <c r="E39">
-        <v>73</v>
+        <v>36</v>
+      </c>
+      <c r="C39" s="9">
+        <v>884</v>
+      </c>
+      <c r="D39" s="9">
+        <v>17</v>
+      </c>
+      <c r="E39" s="9">
+        <v>53</v>
       </c>
       <c r="F39" s="5">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="G39">
         <f t="shared" si="5"/>
@@ -1456,16 +1457,16 @@
         <v>3</v>
       </c>
       <c r="B40" s="4">
-        <v>31</v>
-      </c>
-      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="C40" s="9">
         <v>15</v>
       </c>
-      <c r="D40">
-        <v>1631</v>
-      </c>
-      <c r="E40">
-        <v>51</v>
+      <c r="D40" s="9">
+        <v>1641</v>
+      </c>
+      <c r="E40" s="9">
+        <v>61</v>
       </c>
       <c r="F40" s="5">
         <v>46</v>
@@ -1487,19 +1488,19 @@
         <v>4</v>
       </c>
       <c r="B41" s="4">
-        <v>42</v>
-      </c>
-      <c r="C41">
-        <v>57</v>
-      </c>
-      <c r="D41">
-        <v>36</v>
-      </c>
-      <c r="E41">
-        <v>1026</v>
+        <v>22</v>
+      </c>
+      <c r="C41" s="9">
+        <v>45</v>
+      </c>
+      <c r="D41" s="9">
+        <v>16</v>
+      </c>
+      <c r="E41" s="9">
+        <v>1102</v>
       </c>
       <c r="F41" s="5">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G41">
         <f t="shared" si="5"/>
@@ -1518,19 +1519,19 @@
         <v>5</v>
       </c>
       <c r="B42" s="6">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="C42" s="7">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="D42" s="7">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E42" s="7">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F42" s="8">
-        <v>919</v>
+        <v>1063</v>
       </c>
       <c r="G42">
         <f t="shared" si="5"/>
@@ -1550,23 +1551,23 @@
       </c>
       <c r="B43">
         <f>SUM(B38:B42)</f>
-        <v>974</v>
+        <v>922</v>
       </c>
       <c r="C43">
         <f>SUM(C38:C42)</f>
-        <v>944</v>
+        <v>1026</v>
       </c>
       <c r="D43">
         <f>SUM(D38:D42)</f>
-        <v>1785</v>
+        <v>1712</v>
       </c>
       <c r="E43">
         <f>SUM(E38:E42)</f>
-        <v>1310</v>
+        <v>1333</v>
       </c>
       <c r="F43">
         <f>SUM(F38:F42)</f>
-        <v>1223</v>
+        <v>1243</v>
       </c>
       <c r="G43">
         <f t="shared" si="5"/>
@@ -1614,87 +1615,112 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>840</v>
+        <f>'FER-2013'!B2</f>
+        <v>881</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <f>'FER-2013'!C2</f>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <f>'FER-2013'!D2</f>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <f>'FER-2013'!E2</f>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <f>'FER-2013'!F2</f>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>38</v>
+        <f>'FER-2013'!B3</f>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>805</v>
+        <f>'FER-2013'!C3</f>
+        <v>872</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <f>'FER-2013'!D3</f>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>81</v>
+        <f>'FER-2013'!E3</f>
+        <v>60</v>
       </c>
       <c r="E3">
-        <v>77</v>
+        <f>'FER-2013'!F3</f>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>48</v>
+        <f>'FER-2013'!B4</f>
+        <v>35</v>
       </c>
       <c r="B4">
-        <v>103</v>
+        <f>'FER-2013'!C4</f>
+        <v>86</v>
       </c>
       <c r="C4">
-        <v>1441</v>
+        <f>'FER-2013'!D4</f>
+        <v>1511</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <f>'FER-2013'!E4</f>
+        <v>69</v>
       </c>
       <c r="E4">
-        <v>83</v>
+        <f>'FER-2013'!F4</f>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>43</v>
+        <f>'FER-2013'!B5</f>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <f>'FER-2013'!C5</f>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>64</v>
+        <f>'FER-2013'!D5</f>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>1003</v>
+        <f>'FER-2013'!E5</f>
+        <v>1063</v>
       </c>
       <c r="E5">
-        <v>65</v>
+        <f>'FER-2013'!F5</f>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>46</v>
+        <f>'FER-2013'!B6</f>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <f>'FER-2013'!C6</f>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <f>'FER-2013'!D6</f>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>69</v>
+        <f>'FER-2013'!E6</f>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>1029</v>
+        <f>'FER-2013'!F6</f>
+        <v>1089</v>
       </c>
     </row>
   </sheetData>
@@ -1731,87 +1757,112 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>695</v>
+        <f>'FER-2013'!B11</f>
+        <v>825</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <f>'FER-2013'!C11</f>
+        <v>45</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <f>'FER-2013'!D11</f>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <f>'FER-2013'!E11</f>
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>42</v>
+        <f>'FER-2013'!F11</f>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>47</v>
+        <f>'FER-2013'!B12</f>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>775</v>
+        <f>'FER-2013'!C12</f>
+        <v>885</v>
       </c>
       <c r="C3">
-        <v>72</v>
+        <f>'FER-2013'!D12</f>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <f>'FER-2013'!E12</f>
+        <v>42</v>
       </c>
       <c r="E3">
-        <v>74</v>
+        <f>'FER-2013'!F12</f>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>53</v>
+        <f>'FER-2013'!B13</f>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <f>'FER-2013'!C13</f>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>1494</v>
+        <f>'FER-2013'!D13</f>
+        <v>1584</v>
       </c>
       <c r="D4">
-        <v>84</v>
+        <f>'FER-2013'!E13</f>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>101</v>
+        <f>'FER-2013'!F13</f>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>103</v>
+        <f>'FER-2013'!B14</f>
+        <v>84</v>
       </c>
       <c r="B5">
-        <v>86</v>
+        <f>'FER-2013'!C14</f>
+        <v>68</v>
       </c>
       <c r="C5">
-        <v>143</v>
+        <f>'FER-2013'!D14</f>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>792</v>
+        <f>'FER-2013'!E14</f>
+        <v>963</v>
       </c>
       <c r="E5">
-        <v>109</v>
+        <f>'FER-2013'!F14</f>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
+        <f>'FER-2013'!B15</f>
         <v>67</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <f>'FER-2013'!C15</f>
+        <v>36</v>
       </c>
       <c r="C6">
-        <v>153</v>
+        <f>'FER-2013'!D15</f>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>87</v>
+        <f>'FER-2013'!E15</f>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>898</v>
+        <f>'FER-2013'!F15</f>
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -1848,87 +1899,112 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>748</v>
+        <f>'FER-2013'!B20</f>
+        <v>858</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <f>'FER-2013'!C20</f>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <f>'FER-2013'!D20</f>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>77</v>
+        <f>'FER-2013'!E20</f>
+        <v>37</v>
       </c>
       <c r="E2">
-        <v>63</v>
+        <f>'FER-2013'!F20</f>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>103</v>
+        <f>'FER-2013'!B21</f>
+        <v>73</v>
       </c>
       <c r="B3">
-        <v>660</v>
+        <f>'FER-2013'!C21</f>
+        <v>802</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <f>'FER-2013'!D21</f>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>128</v>
+        <f>'FER-2013'!E21</f>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <f>'FER-2013'!F21</f>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>94</v>
+        <f>'FER-2013'!B22</f>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <f>'FER-2013'!C22</f>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>1502</v>
+        <f>'FER-2013'!D22</f>
+        <v>1602</v>
       </c>
       <c r="D4">
-        <v>82</v>
+        <f>'FER-2013'!E22</f>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>44</v>
+        <f>'FER-2013'!F22</f>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>72</v>
+        <f>'FER-2013'!B23</f>
+        <v>54</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <f>'FER-2013'!C23</f>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>42</v>
+        <f>'FER-2013'!D23</f>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>994</v>
+        <f>'FER-2013'!E23</f>
+        <v>1086</v>
       </c>
       <c r="E5">
-        <v>91</v>
+        <f>'FER-2013'!F23</f>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>107</v>
+        <f>'FER-2013'!B24</f>
+        <v>97</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <f>'FER-2013'!C24</f>
+        <v>49</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <f>'FER-2013'!D24</f>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>118</v>
+        <f>'FER-2013'!E24</f>
+        <v>78</v>
       </c>
       <c r="E6">
-        <v>933</v>
+        <f>'FER-2013'!F24</f>
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -1941,7 +2017,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1965,87 +2041,112 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>692</v>
+        <f>'FER-2013'!B29</f>
+        <v>822</v>
       </c>
       <c r="B2">
-        <v>97</v>
+        <f>'FER-2013'!C29</f>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <f>'FER-2013'!D29</f>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>71</v>
+        <f>'FER-2013'!E29</f>
+        <v>51</v>
       </c>
       <c r="E2">
-        <v>63</v>
+        <f>'FER-2013'!F29</f>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>41</v>
+        <f>'FER-2013'!B30</f>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>803</v>
+        <f>'FER-2013'!C30</f>
+        <v>920</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <f>'FER-2013'!D30</f>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <f>'FER-2013'!E30</f>
+        <v>38</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <f>'FER-2013'!F30</f>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>34</v>
+        <f>'FER-2013'!B31</f>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <f>'FER-2013'!C31</f>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>1520</v>
+        <f>'FER-2013'!D31</f>
+        <v>1631</v>
       </c>
       <c r="D4">
-        <v>68</v>
+        <f>'FER-2013'!E31</f>
+        <v>52</v>
       </c>
       <c r="E4">
-        <v>81</v>
+        <f>'FER-2013'!F31</f>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>65</v>
+        <f>'FER-2013'!B32</f>
+        <v>45</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <f>'FER-2013'!C32</f>
+        <v>63</v>
       </c>
       <c r="C5">
-        <v>137</v>
+        <f>'FER-2013'!D32</f>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>865</v>
+        <f>'FER-2013'!E32</f>
+        <v>995</v>
       </c>
       <c r="E5">
-        <v>93</v>
+        <f>'FER-2013'!F32</f>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>47</v>
+        <f>'FER-2013'!B33</f>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>53</v>
+        <f>'FER-2013'!C33</f>
+        <v>42</v>
       </c>
       <c r="C6">
-        <v>98</v>
+        <f>'FER-2013'!D33</f>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>65</v>
+        <f>'FER-2013'!E33</f>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>984</v>
+        <f>'FER-2013'!F33</f>
+        <v>1095</v>
       </c>
     </row>
   </sheetData>
@@ -2057,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890D9B67-AC28-4F13-A388-D227C87EC7E9}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2082,87 +2183,112 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>713</v>
+        <f>'FER-2013'!B38</f>
+        <v>795</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <f>'FER-2013'!C38</f>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <f>'FER-2013'!D38</f>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <f>'FER-2013'!E38</f>
+        <v>48</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <f>'FER-2013'!F38</f>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>86</v>
+        <f>'FER-2013'!B39</f>
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>730</v>
+        <f>'FER-2013'!C39</f>
+        <v>884</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <f>'FER-2013'!D39</f>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>73</v>
+        <f>'FER-2013'!E39</f>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>94</v>
+        <f>'FER-2013'!F39</f>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>31</v>
+        <f>'FER-2013'!B40</f>
+        <v>11</v>
       </c>
       <c r="B4">
+        <f>'FER-2013'!C40</f>
         <v>15</v>
       </c>
       <c r="C4">
-        <v>1631</v>
+        <f>'FER-2013'!D40</f>
+        <v>1641</v>
       </c>
       <c r="D4">
-        <v>51</v>
+        <f>'FER-2013'!E40</f>
+        <v>61</v>
       </c>
       <c r="E4">
+        <f>'FER-2013'!F40</f>
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>42</v>
+        <f>'FER-2013'!B41</f>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <f>'FER-2013'!C41</f>
+        <v>45</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <f>'FER-2013'!D41</f>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>1026</v>
+        <f>'FER-2013'!E41</f>
+        <v>1102</v>
       </c>
       <c r="E5">
-        <v>72</v>
+        <f>'FER-2013'!F41</f>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>102</v>
+        <f>'FER-2013'!B42</f>
+        <v>58</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <f>'FER-2013'!C42</f>
+        <v>48</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <f>'FER-2013'!D42</f>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>99</v>
+        <f>'FER-2013'!E42</f>
+        <v>69</v>
       </c>
       <c r="E6">
-        <v>919</v>
+        <f>'FER-2013'!F42</f>
+        <v>1063</v>
       </c>
     </row>
   </sheetData>

--- a/emotions/fer_experiments.xlsx
+++ b/emotions/fer_experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\my-study-python\emotions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9076EE3E-D1AB-427B-B968-0ABF393123A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29A76C1-6ADA-4873-BFD1-B625514C17CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,9 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
-    <sheet name="FER-2013_Arch_2" sheetId="8" r:id="rId7"/>
-    <sheet name="FER-2013_Arch_1" sheetId="7" r:id="rId8"/>
+    <sheet name="FER2013_Arch_3" sheetId="9" r:id="rId7"/>
+    <sheet name="FER2013_Arch_2" sheetId="8" r:id="rId8"/>
+    <sheet name="FER2013_Arch_1" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="13">
   <si>
     <t>angry</t>
   </si>
@@ -197,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -207,7 +208,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -522,24 +522,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>881</v>
+        <v>789</v>
       </c>
       <c r="C2" s="2">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G7" si="0">SUM(B2:F2)</f>
@@ -552,168 +552,418 @@
       <c r="J2">
         <v>958</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>-2</v>
+      </c>
+      <c r="N2">
+        <v>-2</v>
+      </c>
+      <c r="O2">
+        <v>-2</v>
+      </c>
+      <c r="P2">
+        <v>-2</v>
+      </c>
+      <c r="R2">
+        <f>B2+L2</f>
+        <v>797</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:S6" si="1">C2+M2</f>
+        <v>48</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:T6" si="2">D2+N2</f>
+        <v>31</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2:U6" si="3">E2+O2</f>
+        <v>48</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2:V6" si="4">F2+P2</f>
+        <v>34</v>
+      </c>
+      <c r="X2">
+        <v>789</v>
+      </c>
+      <c r="Y2">
+        <v>50</v>
+      </c>
+      <c r="Z2">
+        <v>33</v>
+      </c>
+      <c r="AA2">
+        <v>50</v>
+      </c>
+      <c r="AB2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9">
-        <v>872</v>
-      </c>
-      <c r="D3" s="9">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9">
-        <v>60</v>
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>760</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>93</v>
       </c>
       <c r="F3" s="5">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H43" si="1">J3-G3</f>
+        <f t="shared" ref="H3:H43" si="5">J3-G3</f>
         <v>0</v>
       </c>
       <c r="J3">
         <v>1024</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <v>-2</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>-2</v>
+      </c>
+      <c r="O3">
+        <v>-2</v>
+      </c>
+      <c r="P3">
+        <v>-2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R6" si="6">B3+L3</f>
+        <v>34</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>768</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="X3">
+        <v>36</v>
+      </c>
+      <c r="Y3">
+        <v>760</v>
+      </c>
+      <c r="Z3">
+        <v>30</v>
+      </c>
+      <c r="AA3">
+        <v>93</v>
+      </c>
+      <c r="AB3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>35</v>
-      </c>
-      <c r="C4" s="9">
-        <v>86</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1511</v>
-      </c>
-      <c r="E4" s="9">
-        <v>69</v>
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>79</v>
+      </c>
+      <c r="D4">
+        <v>1419</v>
+      </c>
+      <c r="E4">
+        <v>117</v>
       </c>
       <c r="F4" s="5">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
         <v>1774</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J4">
         <v>1774</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <v>-2</v>
+      </c>
+      <c r="M4">
+        <v>-2</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>-2</v>
+      </c>
+      <c r="P4">
+        <v>-2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="2"/>
+        <v>1427</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="X4">
+        <v>58</v>
+      </c>
+      <c r="Y4">
+        <v>79</v>
+      </c>
+      <c r="Z4">
+        <v>1419</v>
+      </c>
+      <c r="AA4">
+        <v>117</v>
+      </c>
+      <c r="AB4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>27</v>
-      </c>
-      <c r="C5" s="9">
-        <v>44</v>
-      </c>
-      <c r="D5" s="9">
-        <v>44</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1063</v>
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>82</v>
+      </c>
+      <c r="D5">
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>971</v>
       </c>
       <c r="F5" s="5">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
         <v>1233</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J5">
         <v>1233</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <v>-2</v>
+      </c>
+      <c r="M5">
+        <v>-2</v>
+      </c>
+      <c r="N5">
+        <v>-2</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>-2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="3"/>
+        <v>979</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="X5">
+        <v>45</v>
+      </c>
+      <c r="Y5">
+        <v>82</v>
+      </c>
+      <c r="Z5">
+        <v>52</v>
+      </c>
+      <c r="AA5">
+        <v>971</v>
+      </c>
+      <c r="AB5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C6" s="7">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E6" s="7">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F6" s="8">
-        <v>1089</v>
+        <v>997</v>
       </c>
       <c r="G6">
         <f>SUM(B6:F6)</f>
         <v>1247</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J6">
         <v>1247</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L6">
+        <v>-2</v>
+      </c>
+      <c r="M6">
+        <v>-2</v>
+      </c>
+      <c r="N6">
+        <v>-2</v>
+      </c>
+      <c r="O6">
+        <v>-2</v>
+      </c>
+      <c r="P6">
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="4"/>
+        <v>1005</v>
+      </c>
+      <c r="X6">
+        <v>43</v>
+      </c>
+      <c r="Y6">
+        <v>37</v>
+      </c>
+      <c r="Z6">
+        <v>92</v>
+      </c>
+      <c r="AA6">
+        <v>78</v>
+      </c>
+      <c r="AB6">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <f>SUM(B2:B6)</f>
-        <v>991</v>
+        <v>971</v>
       </c>
       <c r="C7">
         <f>SUM(C2:C6)</f>
-        <v>1047</v>
+        <v>1008</v>
       </c>
       <c r="D7">
         <f>SUM(D2:D6)</f>
-        <v>1637</v>
+        <v>1626</v>
       </c>
       <c r="E7">
         <f>SUM(E2:E6)</f>
-        <v>1269</v>
+        <v>1309</v>
       </c>
       <c r="F7">
         <f>SUM(F2:F6)</f>
-        <v>1292</v>
+        <v>1322</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
         <v>6236</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J7">
         <v>6236</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -739,162 +989,412 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1">
-        <v>825</v>
+        <v>733</v>
       </c>
       <c r="C11" s="2">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F11" s="3">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G16" si="2">SUM(B11:F11)</f>
+        <f t="shared" ref="G11:G16" si="7">SUM(B11:F11)</f>
         <v>958</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J11">
         <v>958</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>-2</v>
+      </c>
+      <c r="N11">
+        <v>-2</v>
+      </c>
+      <c r="O11">
+        <v>-2</v>
+      </c>
+      <c r="P11">
+        <v>-2</v>
+      </c>
+      <c r="R11">
+        <f>B11+L11</f>
+        <v>741</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ref="S11:V15" si="8">C11+M11</f>
+        <v>66</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="X11">
+        <v>733</v>
+      </c>
+      <c r="Y11">
+        <v>68</v>
+      </c>
+      <c r="Z11">
+        <v>40</v>
+      </c>
+      <c r="AA11">
+        <v>62</v>
+      </c>
+      <c r="AB11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9">
-        <v>885</v>
-      </c>
-      <c r="D12" s="9">
-        <v>22</v>
-      </c>
-      <c r="E12" s="9">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>793</v>
+      </c>
+      <c r="D12">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>65</v>
       </c>
       <c r="F12" s="5">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1024</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J12">
         <v>1024</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L12">
+        <v>-2</v>
+      </c>
+      <c r="M12">
+        <v>8</v>
+      </c>
+      <c r="N12">
+        <v>-2</v>
+      </c>
+      <c r="O12">
+        <v>-2</v>
+      </c>
+      <c r="P12">
+        <v>-2</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12:R15" si="9">B12+L12</f>
+        <v>42</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="8"/>
+        <v>801</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="X12">
+        <v>44</v>
+      </c>
+      <c r="Y12">
+        <v>793</v>
+      </c>
+      <c r="Z12">
+        <v>45</v>
+      </c>
+      <c r="AA12">
+        <v>65</v>
+      </c>
+      <c r="AB12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="4">
-        <v>31</v>
-      </c>
-      <c r="C13" s="9">
-        <v>22</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1584</v>
-      </c>
-      <c r="E13" s="9">
-        <v>64</v>
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>1492</v>
+      </c>
+      <c r="E13">
+        <v>87</v>
       </c>
       <c r="F13" s="5">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1774</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J13">
         <v>1774</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L13">
+        <v>-2</v>
+      </c>
+      <c r="M13">
+        <v>-2</v>
+      </c>
+      <c r="N13">
+        <v>8</v>
+      </c>
+      <c r="O13">
+        <v>-2</v>
+      </c>
+      <c r="P13">
+        <v>-2</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="8"/>
+        <v>1500</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="8"/>
+        <v>85</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="X13">
+        <v>54</v>
+      </c>
+      <c r="Y13">
+        <v>45</v>
+      </c>
+      <c r="Z13">
+        <v>1492</v>
+      </c>
+      <c r="AA13">
+        <v>87</v>
+      </c>
+      <c r="AB13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>84</v>
-      </c>
-      <c r="C14" s="9">
-        <v>68</v>
-      </c>
-      <c r="D14" s="9">
-        <v>30</v>
-      </c>
-      <c r="E14" s="9">
-        <v>963</v>
+        <v>107</v>
+      </c>
+      <c r="C14">
+        <v>91</v>
+      </c>
+      <c r="D14">
+        <v>53</v>
+      </c>
+      <c r="E14">
+        <v>871</v>
       </c>
       <c r="F14" s="5">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1233</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J14">
         <v>1233</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L14">
+        <v>-2</v>
+      </c>
+      <c r="M14">
+        <v>-2</v>
+      </c>
+      <c r="N14">
+        <v>-2</v>
+      </c>
+      <c r="O14">
+        <v>8</v>
+      </c>
+      <c r="P14">
+        <v>-2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="9"/>
+        <v>105</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="8"/>
+        <v>879</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="8"/>
+        <v>109</v>
+      </c>
+      <c r="X14">
+        <v>107</v>
+      </c>
+      <c r="Y14">
+        <v>91</v>
+      </c>
+      <c r="Z14">
+        <v>53</v>
+      </c>
+      <c r="AA14">
+        <v>871</v>
+      </c>
+      <c r="AB14">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="6">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C15" s="7">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D15" s="7">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E15" s="7">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F15" s="8">
-        <v>1025</v>
+        <v>933</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1247</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J15">
         <v>1247</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L15">
+        <v>-2</v>
+      </c>
+      <c r="M15">
+        <v>-2</v>
+      </c>
+      <c r="N15">
+        <v>-2</v>
+      </c>
+      <c r="O15">
+        <v>-2</v>
+      </c>
+      <c r="P15">
+        <v>8</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="9"/>
+        <v>88</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="8"/>
+        <v>115</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="8"/>
+        <v>941</v>
+      </c>
+      <c r="X15">
+        <v>90</v>
+      </c>
+      <c r="Y15">
+        <v>59</v>
+      </c>
+      <c r="Z15">
+        <v>48</v>
+      </c>
+      <c r="AA15">
+        <v>117</v>
+      </c>
+      <c r="AB15">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -919,18 +1419,18 @@
         <v>1272</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6236</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J16">
         <v>6236</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -956,162 +1456,412 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1">
-        <v>858</v>
+        <v>766</v>
       </c>
       <c r="C20" s="2">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F20" s="3">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20:G25" si="3">SUM(B20:F20)</f>
+        <f t="shared" ref="G20:G25" si="10">SUM(B20:F20)</f>
         <v>958</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J20">
         <v>958</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <v>-2</v>
+      </c>
+      <c r="N20">
+        <v>-2</v>
+      </c>
+      <c r="O20">
+        <v>-2</v>
+      </c>
+      <c r="P20">
+        <v>-2</v>
+      </c>
+      <c r="R20">
+        <f>B20+L20</f>
+        <v>774</v>
+      </c>
+      <c r="S20">
+        <f t="shared" ref="S20:S24" si="11">C20+M20</f>
+        <v>38</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ref="T20:T24" si="12">D20+N20</f>
+        <v>24</v>
+      </c>
+      <c r="U20">
+        <f t="shared" ref="U20:U24" si="13">E20+O20</f>
+        <v>58</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ref="V20:V24" si="14">F20+P20</f>
+        <v>64</v>
+      </c>
+      <c r="X20">
+        <v>766</v>
+      </c>
+      <c r="Y20">
+        <v>40</v>
+      </c>
+      <c r="Z20">
+        <v>26</v>
+      </c>
+      <c r="AA20">
+        <v>60</v>
+      </c>
+      <c r="AB20">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="4">
-        <v>73</v>
-      </c>
-      <c r="C21" s="9">
-        <v>802</v>
-      </c>
-      <c r="D21" s="9">
-        <v>9</v>
-      </c>
-      <c r="E21" s="9">
-        <v>59</v>
+        <v>96</v>
+      </c>
+      <c r="C21">
+        <v>710</v>
+      </c>
+      <c r="D21">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>82</v>
       </c>
       <c r="F21" s="5">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1024</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J21">
         <v>1024</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L21">
+        <v>-2</v>
+      </c>
+      <c r="M21">
+        <v>8</v>
+      </c>
+      <c r="N21">
+        <v>-2</v>
+      </c>
+      <c r="O21">
+        <v>-2</v>
+      </c>
+      <c r="P21">
+        <v>-2</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ref="R21:R24" si="15">B21+L21</f>
+        <v>94</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="11"/>
+        <v>718</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="14"/>
+        <v>102</v>
+      </c>
+      <c r="X21">
+        <v>96</v>
+      </c>
+      <c r="Y21">
+        <v>710</v>
+      </c>
+      <c r="Z21">
+        <v>32</v>
+      </c>
+      <c r="AA21">
+        <v>82</v>
+      </c>
+      <c r="AB21">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="4">
-        <v>60</v>
-      </c>
-      <c r="C22" s="9">
-        <v>32</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1602</v>
-      </c>
-      <c r="E22" s="9">
-        <v>42</v>
+        <v>83</v>
+      </c>
+      <c r="C22">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <v>1510</v>
+      </c>
+      <c r="E22">
+        <v>65</v>
       </c>
       <c r="F22" s="5">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1774</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J22">
         <v>1774</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L22">
+        <v>-2</v>
+      </c>
+      <c r="M22">
+        <v>-2</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <v>-2</v>
+      </c>
+      <c r="P22">
+        <v>-2</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="15"/>
+        <v>81</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="12"/>
+        <v>1518</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="13"/>
+        <v>63</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="14"/>
+        <v>59</v>
+      </c>
+      <c r="X22">
+        <v>83</v>
+      </c>
+      <c r="Y22">
+        <v>55</v>
+      </c>
+      <c r="Z22">
+        <v>1510</v>
+      </c>
+      <c r="AA22">
+        <v>65</v>
+      </c>
+      <c r="AB22">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="4">
-        <v>54</v>
-      </c>
-      <c r="C23" s="9">
-        <v>19</v>
-      </c>
-      <c r="D23" s="9">
-        <v>12</v>
-      </c>
-      <c r="E23" s="9">
-        <v>1086</v>
+        <v>77</v>
+      </c>
+      <c r="C23">
+        <v>42</v>
+      </c>
+      <c r="D23">
+        <v>35</v>
+      </c>
+      <c r="E23">
+        <v>994</v>
       </c>
       <c r="F23" s="5">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1233</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J23">
         <v>1233</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L23">
+        <v>-2</v>
+      </c>
+      <c r="M23">
+        <v>-2</v>
+      </c>
+      <c r="N23">
+        <v>-2</v>
+      </c>
+      <c r="O23">
+        <v>8</v>
+      </c>
+      <c r="P23">
+        <v>-2</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="15"/>
+        <v>75</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="13"/>
+        <v>1002</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="14"/>
+        <v>83</v>
+      </c>
+      <c r="X23">
+        <v>77</v>
+      </c>
+      <c r="Y23">
+        <v>42</v>
+      </c>
+      <c r="Z23">
+        <v>35</v>
+      </c>
+      <c r="AA23">
+        <v>994</v>
+      </c>
+      <c r="AB23">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="6">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C24" s="7">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D24" s="7">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E24" s="7">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="F24" s="8">
-        <v>1013</v>
+        <v>921</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>1247</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J24">
         <v>1247</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L24">
+        <v>-2</v>
+      </c>
+      <c r="M24">
+        <v>-2</v>
+      </c>
+      <c r="N24">
+        <v>-2</v>
+      </c>
+      <c r="O24">
+        <v>-2</v>
+      </c>
+      <c r="P24">
+        <v>8</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="15"/>
+        <v>118</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="13"/>
+        <v>99</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="14"/>
+        <v>929</v>
+      </c>
+      <c r="X24">
+        <v>120</v>
+      </c>
+      <c r="Y24">
+        <v>72</v>
+      </c>
+      <c r="Z24">
+        <v>33</v>
+      </c>
+      <c r="AA24">
+        <v>101</v>
+      </c>
+      <c r="AB24">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1136,18 +1886,18 @@
         <v>1237</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>6236</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J25">
         <v>6236</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1173,162 +1923,412 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="1">
-        <v>822</v>
+        <v>730</v>
       </c>
       <c r="C29" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D29" s="2">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F29" s="3">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29:G34" si="4">SUM(B29:F29)</f>
+        <f t="shared" ref="G29:G34" si="16">SUM(B29:F29)</f>
         <v>958</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J29">
         <v>958</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L29">
+        <v>8</v>
+      </c>
+      <c r="M29">
+        <v>-2</v>
+      </c>
+      <c r="N29">
+        <v>-2</v>
+      </c>
+      <c r="O29">
+        <v>-2</v>
+      </c>
+      <c r="P29">
+        <v>-2</v>
+      </c>
+      <c r="R29">
+        <f>B29+L29</f>
+        <v>738</v>
+      </c>
+      <c r="S29">
+        <f t="shared" ref="S29:S33" si="17">C29+M29</f>
+        <v>58</v>
+      </c>
+      <c r="T29">
+        <f t="shared" ref="T29:T33" si="18">D29+N29</f>
+        <v>36</v>
+      </c>
+      <c r="U29">
+        <f t="shared" ref="U29:U33" si="19">E29+O29</f>
+        <v>72</v>
+      </c>
+      <c r="V29">
+        <f t="shared" ref="V29:V33" si="20">F29+P29</f>
+        <v>54</v>
+      </c>
+      <c r="X29">
+        <v>730</v>
+      </c>
+      <c r="Y29">
+        <v>60</v>
+      </c>
+      <c r="Z29">
+        <v>38</v>
+      </c>
+      <c r="AA29">
+        <v>74</v>
+      </c>
+      <c r="AB29">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="4">
-        <v>19</v>
-      </c>
-      <c r="C30" s="9">
-        <v>920</v>
-      </c>
-      <c r="D30" s="9">
-        <v>18</v>
-      </c>
-      <c r="E30" s="9">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="C30">
+        <v>828</v>
+      </c>
+      <c r="D30">
+        <v>41</v>
+      </c>
+      <c r="E30">
+        <v>61</v>
       </c>
       <c r="F30" s="5">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1024</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J30">
         <v>1024</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L30">
+        <v>-2</v>
+      </c>
+      <c r="M30">
+        <v>8</v>
+      </c>
+      <c r="N30">
+        <v>-2</v>
+      </c>
+      <c r="O30">
+        <v>-2</v>
+      </c>
+      <c r="P30">
+        <v>-2</v>
+      </c>
+      <c r="R30">
+        <f t="shared" ref="R30:R33" si="21">B30+L30</f>
+        <v>40</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="17"/>
+        <v>836</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="18"/>
+        <v>39</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="19"/>
+        <v>59</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="20"/>
+        <v>50</v>
+      </c>
+      <c r="X30">
+        <v>42</v>
+      </c>
+      <c r="Y30">
+        <v>828</v>
+      </c>
+      <c r="Z30">
+        <v>41</v>
+      </c>
+      <c r="AA30">
+        <v>61</v>
+      </c>
+      <c r="AB30">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="4">
-        <v>20</v>
-      </c>
-      <c r="C31" s="9">
-        <v>30</v>
-      </c>
-      <c r="D31" s="9">
-        <v>1631</v>
-      </c>
-      <c r="E31" s="9">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="C31">
+        <v>53</v>
+      </c>
+      <c r="D31">
+        <v>1539</v>
+      </c>
+      <c r="E31">
+        <v>75</v>
       </c>
       <c r="F31" s="5">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1774</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J31">
         <v>1774</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L31">
+        <v>-2</v>
+      </c>
+      <c r="M31">
+        <v>-2</v>
+      </c>
+      <c r="N31">
+        <v>8</v>
+      </c>
+      <c r="O31">
+        <v>-2</v>
+      </c>
+      <c r="P31">
+        <v>-2</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="21"/>
+        <v>41</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="17"/>
+        <v>51</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="18"/>
+        <v>1547</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="19"/>
+        <v>73</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="20"/>
+        <v>62</v>
+      </c>
+      <c r="X31">
+        <v>43</v>
+      </c>
+      <c r="Y31">
+        <v>53</v>
+      </c>
+      <c r="Z31">
+        <v>1539</v>
+      </c>
+      <c r="AA31">
+        <v>75</v>
+      </c>
+      <c r="AB31">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="4">
-        <v>45</v>
-      </c>
-      <c r="C32" s="9">
-        <v>63</v>
-      </c>
-      <c r="D32" s="9">
-        <v>27</v>
-      </c>
-      <c r="E32" s="9">
-        <v>995</v>
+        <v>68</v>
+      </c>
+      <c r="C32">
+        <v>86</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>903</v>
       </c>
       <c r="F32" s="5">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1233</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J32">
         <v>1233</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L32">
+        <v>-2</v>
+      </c>
+      <c r="M32">
+        <v>-2</v>
+      </c>
+      <c r="N32">
+        <v>-2</v>
+      </c>
+      <c r="O32">
+        <v>8</v>
+      </c>
+      <c r="P32">
+        <v>-2</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="17"/>
+        <v>84</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="18"/>
+        <v>48</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="19"/>
+        <v>911</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="20"/>
+        <v>124</v>
+      </c>
+      <c r="X32">
+        <v>68</v>
+      </c>
+      <c r="Y32">
+        <v>86</v>
+      </c>
+      <c r="Z32">
+        <v>50</v>
+      </c>
+      <c r="AA32">
+        <v>903</v>
+      </c>
+      <c r="AB32">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="6">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C33" s="7">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D33" s="7">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E33" s="7">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F33" s="8">
-        <v>1095</v>
+        <v>1003</v>
       </c>
       <c r="G33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1247</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J33">
         <v>1247</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L33">
+        <v>-2</v>
+      </c>
+      <c r="M33">
+        <v>-2</v>
+      </c>
+      <c r="N33">
+        <v>-2</v>
+      </c>
+      <c r="O33">
+        <v>-2</v>
+      </c>
+      <c r="P33">
+        <v>8</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="21"/>
+        <v>58</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="17"/>
+        <v>63</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="18"/>
+        <v>39</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="20"/>
+        <v>1011</v>
+      </c>
+      <c r="X33">
+        <v>60</v>
+      </c>
+      <c r="Y33">
+        <v>65</v>
+      </c>
+      <c r="Z33">
+        <v>41</v>
+      </c>
+      <c r="AA33">
+        <v>78</v>
+      </c>
+      <c r="AB33">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1353,18 +2353,18 @@
         <v>1301</v>
       </c>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>6236</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J34">
         <v>6236</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1390,162 +2390,412 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="1">
-        <v>795</v>
+        <v>703</v>
       </c>
       <c r="C38" s="2">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D38" s="2">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E38" s="2">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="F38" s="3">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:G43" si="5">SUM(B38:F38)</f>
+        <f t="shared" ref="G38:G43" si="22">SUM(B38:F38)</f>
         <v>958</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J38">
         <v>958</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L38">
+        <v>8</v>
+      </c>
+      <c r="M38">
+        <v>-2</v>
+      </c>
+      <c r="N38">
+        <v>-2</v>
+      </c>
+      <c r="O38">
+        <v>-2</v>
+      </c>
+      <c r="P38">
+        <v>-2</v>
+      </c>
+      <c r="R38">
+        <f>B38+L38</f>
+        <v>711</v>
+      </c>
+      <c r="S38">
+        <f t="shared" ref="S38:S42" si="23">C38+M38</f>
+        <v>55</v>
+      </c>
+      <c r="T38">
+        <f t="shared" ref="T38:T42" si="24">D38+N38</f>
+        <v>50</v>
+      </c>
+      <c r="U38">
+        <f t="shared" ref="U38:U42" si="25">E38+O38</f>
+        <v>69</v>
+      </c>
+      <c r="V38">
+        <f t="shared" ref="V38:V42" si="26">F38+P38</f>
+        <v>73</v>
+      </c>
+      <c r="X38">
+        <v>703</v>
+      </c>
+      <c r="Y38">
+        <v>57</v>
+      </c>
+      <c r="Z38">
+        <v>52</v>
+      </c>
+      <c r="AA38">
+        <v>71</v>
+      </c>
+      <c r="AB38">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="4">
-        <v>36</v>
-      </c>
-      <c r="C39" s="9">
-        <v>884</v>
-      </c>
-      <c r="D39" s="9">
-        <v>17</v>
-      </c>
-      <c r="E39" s="9">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="C39">
+        <v>792</v>
+      </c>
+      <c r="D39">
+        <v>40</v>
+      </c>
+      <c r="E39">
+        <v>76</v>
       </c>
       <c r="F39" s="5">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="G39">
+        <f t="shared" si="22"/>
+        <v>1024</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="5"/>
-        <v>1024</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J39">
         <v>1024</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L39">
+        <v>-2</v>
+      </c>
+      <c r="M39">
+        <v>8</v>
+      </c>
+      <c r="N39">
+        <v>-2</v>
+      </c>
+      <c r="O39">
+        <v>-2</v>
+      </c>
+      <c r="P39">
+        <v>-2</v>
+      </c>
+      <c r="R39">
+        <f t="shared" ref="R39:R42" si="27">B39+L39</f>
+        <v>57</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="23"/>
+        <v>800</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="24"/>
+        <v>38</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="25"/>
+        <v>74</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="26"/>
+        <v>55</v>
+      </c>
+      <c r="X39">
+        <v>59</v>
+      </c>
+      <c r="Y39">
+        <v>792</v>
+      </c>
+      <c r="Z39">
+        <v>40</v>
+      </c>
+      <c r="AA39">
+        <v>76</v>
+      </c>
+      <c r="AB39">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="4">
-        <v>11</v>
-      </c>
-      <c r="C40" s="9">
-        <v>15</v>
-      </c>
-      <c r="D40" s="9">
-        <v>1641</v>
-      </c>
-      <c r="E40" s="9">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>38</v>
+      </c>
+      <c r="D40">
+        <v>1549</v>
+      </c>
+      <c r="E40">
+        <v>84</v>
       </c>
       <c r="F40" s="5">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="G40">
+        <f t="shared" si="22"/>
+        <v>1774</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="5"/>
-        <v>1774</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J40">
         <v>1774</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L40">
+        <v>-2</v>
+      </c>
+      <c r="M40">
+        <v>-2</v>
+      </c>
+      <c r="N40">
+        <v>8</v>
+      </c>
+      <c r="O40">
+        <v>-2</v>
+      </c>
+      <c r="P40">
+        <v>-2</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="27"/>
+        <v>32</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="23"/>
+        <v>36</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="24"/>
+        <v>1557</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="25"/>
+        <v>82</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="26"/>
+        <v>67</v>
+      </c>
+      <c r="X40">
+        <v>34</v>
+      </c>
+      <c r="Y40">
+        <v>38</v>
+      </c>
+      <c r="Z40">
+        <v>1549</v>
+      </c>
+      <c r="AA40">
+        <v>84</v>
+      </c>
+      <c r="AB40">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="4">
-        <v>22</v>
-      </c>
-      <c r="C41" s="9">
         <v>45</v>
       </c>
-      <c r="D41" s="9">
-        <v>16</v>
-      </c>
-      <c r="E41" s="9">
-        <v>1102</v>
+      <c r="C41">
+        <v>68</v>
+      </c>
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>1010</v>
       </c>
       <c r="F41" s="5">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="G41">
+        <f t="shared" si="22"/>
+        <v>1233</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="5"/>
-        <v>1233</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J41">
         <v>1233</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L41">
+        <v>-2</v>
+      </c>
+      <c r="M41">
+        <v>-2</v>
+      </c>
+      <c r="N41">
+        <v>-2</v>
+      </c>
+      <c r="O41">
+        <v>8</v>
+      </c>
+      <c r="P41">
+        <v>-2</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="27"/>
+        <v>43</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="23"/>
+        <v>66</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="24"/>
+        <v>37</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="25"/>
+        <v>1018</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="26"/>
+        <v>69</v>
+      </c>
+      <c r="X41">
+        <v>45</v>
+      </c>
+      <c r="Y41">
+        <v>68</v>
+      </c>
+      <c r="Z41">
+        <v>39</v>
+      </c>
+      <c r="AA41">
+        <v>1010</v>
+      </c>
+      <c r="AB41">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="6">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C42" s="7">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D42" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E42" s="7">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="F42" s="8">
-        <v>1063</v>
+        <v>971</v>
       </c>
       <c r="G42">
+        <f t="shared" si="22"/>
+        <v>1247</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="5"/>
-        <v>1247</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J42">
         <v>1247</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L42">
+        <v>-2</v>
+      </c>
+      <c r="M42">
+        <v>-2</v>
+      </c>
+      <c r="N42">
+        <v>-2</v>
+      </c>
+      <c r="O42">
+        <v>-2</v>
+      </c>
+      <c r="P42">
+        <v>8</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="27"/>
+        <v>79</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="23"/>
+        <v>69</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="24"/>
+        <v>30</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="25"/>
+        <v>90</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="26"/>
+        <v>979</v>
+      </c>
+      <c r="X42">
+        <v>81</v>
+      </c>
+      <c r="Y42">
+        <v>71</v>
+      </c>
+      <c r="Z42">
+        <v>32</v>
+      </c>
+      <c r="AA42">
+        <v>92</v>
+      </c>
+      <c r="AB42">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1570,11 +2820,11 @@
         <v>1243</v>
       </c>
       <c r="G43">
+        <f t="shared" si="22"/>
+        <v>6236</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="5"/>
-        <v>6236</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J43">
@@ -1616,111 +2866,111 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>'FER-2013'!B2</f>
-        <v>881</v>
+        <v>789</v>
       </c>
       <c r="B2">
         <f>'FER-2013'!C2</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <f>'FER-2013'!D2</f>
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <f>'FER-2013'!E2</f>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <f>'FER-2013'!F2</f>
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>'FER-2013'!B3</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <f>'FER-2013'!C3</f>
-        <v>872</v>
+        <v>760</v>
       </c>
       <c r="C3">
         <f>'FER-2013'!D3</f>
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <f>'FER-2013'!E3</f>
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="E3">
         <f>'FER-2013'!F3</f>
-        <v>67</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>'FER-2013'!B4</f>
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <f>'FER-2013'!C4</f>
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <f>'FER-2013'!D4</f>
-        <v>1511</v>
+        <v>1419</v>
       </c>
       <c r="D4">
         <f>'FER-2013'!E4</f>
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="E4">
         <f>'FER-2013'!F4</f>
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>'FER-2013'!B5</f>
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <f>'FER-2013'!C5</f>
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <f>'FER-2013'!D5</f>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <f>'FER-2013'!E5</f>
-        <v>1063</v>
+        <v>971</v>
       </c>
       <c r="E5">
         <f>'FER-2013'!F5</f>
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>'FER-2013'!B6</f>
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <f>'FER-2013'!C6</f>
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <f>'FER-2013'!D6</f>
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="D6">
         <f>'FER-2013'!E6</f>
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E6">
         <f>'FER-2013'!F6</f>
-        <v>1089</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -1758,111 +3008,111 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>'FER-2013'!B11</f>
-        <v>825</v>
+        <v>733</v>
       </c>
       <c r="B2">
         <f>'FER-2013'!C11</f>
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <f>'FER-2013'!D11</f>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <f>'FER-2013'!E11</f>
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <f>'FER-2013'!F11</f>
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>'FER-2013'!B12</f>
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <f>'FER-2013'!C12</f>
-        <v>885</v>
+        <v>793</v>
       </c>
       <c r="C3">
         <f>'FER-2013'!D12</f>
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <f>'FER-2013'!E12</f>
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <f>'FER-2013'!F12</f>
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>'FER-2013'!B13</f>
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <f>'FER-2013'!C13</f>
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <f>'FER-2013'!D13</f>
-        <v>1584</v>
+        <v>1492</v>
       </c>
       <c r="D4">
         <f>'FER-2013'!E13</f>
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <f>'FER-2013'!F13</f>
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>'FER-2013'!B14</f>
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <f>'FER-2013'!C14</f>
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <f>'FER-2013'!D14</f>
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <f>'FER-2013'!E14</f>
-        <v>963</v>
+        <v>871</v>
       </c>
       <c r="E5">
         <f>'FER-2013'!F14</f>
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>'FER-2013'!B15</f>
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B6">
         <f>'FER-2013'!C15</f>
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <f>'FER-2013'!D15</f>
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <f>'FER-2013'!E15</f>
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="E6">
         <f>'FER-2013'!F15</f>
-        <v>1025</v>
+        <v>933</v>
       </c>
     </row>
   </sheetData>
@@ -1900,111 +3150,111 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>'FER-2013'!B20</f>
-        <v>858</v>
+        <v>766</v>
       </c>
       <c r="B2">
         <f>'FER-2013'!C20</f>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <f>'FER-2013'!D20</f>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <f>'FER-2013'!E20</f>
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <f>'FER-2013'!F20</f>
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>'FER-2013'!B21</f>
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <f>'FER-2013'!C21</f>
-        <v>802</v>
+        <v>710</v>
       </c>
       <c r="C3">
         <f>'FER-2013'!D21</f>
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <f>'FER-2013'!E21</f>
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E3">
         <f>'FER-2013'!F21</f>
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>'FER-2013'!B22</f>
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <f>'FER-2013'!C22</f>
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <f>'FER-2013'!D22</f>
-        <v>1602</v>
+        <v>1510</v>
       </c>
       <c r="D4">
         <f>'FER-2013'!E22</f>
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <f>'FER-2013'!F22</f>
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>'FER-2013'!B23</f>
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <f>'FER-2013'!C23</f>
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <f>'FER-2013'!D23</f>
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <f>'FER-2013'!E23</f>
-        <v>1086</v>
+        <v>994</v>
       </c>
       <c r="E5">
         <f>'FER-2013'!F23</f>
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>'FER-2013'!B24</f>
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="B6">
         <f>'FER-2013'!C24</f>
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <f>'FER-2013'!D24</f>
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <f>'FER-2013'!E24</f>
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <f>'FER-2013'!F24</f>
-        <v>1013</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -2042,111 +3292,111 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>'FER-2013'!B29</f>
-        <v>822</v>
+        <v>730</v>
       </c>
       <c r="B2">
         <f>'FER-2013'!C29</f>
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <f>'FER-2013'!D29</f>
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <f>'FER-2013'!E29</f>
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <f>'FER-2013'!F29</f>
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>'FER-2013'!B30</f>
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <f>'FER-2013'!C30</f>
-        <v>920</v>
+        <v>828</v>
       </c>
       <c r="C3">
         <f>'FER-2013'!D30</f>
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <f>'FER-2013'!E30</f>
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <f>'FER-2013'!F30</f>
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>'FER-2013'!B31</f>
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <f>'FER-2013'!C31</f>
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <f>'FER-2013'!D31</f>
-        <v>1631</v>
+        <v>1539</v>
       </c>
       <c r="D4">
         <f>'FER-2013'!E31</f>
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E4">
         <f>'FER-2013'!F31</f>
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>'FER-2013'!B32</f>
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <f>'FER-2013'!C32</f>
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <f>'FER-2013'!D32</f>
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <f>'FER-2013'!E32</f>
-        <v>995</v>
+        <v>903</v>
       </c>
       <c r="E5">
         <f>'FER-2013'!F32</f>
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>'FER-2013'!B33</f>
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <f>'FER-2013'!C33</f>
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <f>'FER-2013'!D33</f>
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <f>'FER-2013'!E33</f>
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E6">
         <f>'FER-2013'!F33</f>
-        <v>1095</v>
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -2184,111 +3434,111 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>'FER-2013'!B38</f>
-        <v>795</v>
+        <v>703</v>
       </c>
       <c r="B2">
         <f>'FER-2013'!C38</f>
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <f>'FER-2013'!D38</f>
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <f>'FER-2013'!E38</f>
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E2">
         <f>'FER-2013'!F38</f>
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>'FER-2013'!B39</f>
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <f>'FER-2013'!C39</f>
-        <v>884</v>
+        <v>792</v>
       </c>
       <c r="C3">
         <f>'FER-2013'!D39</f>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <f>'FER-2013'!E39</f>
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E3">
         <f>'FER-2013'!F39</f>
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>'FER-2013'!B40</f>
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <f>'FER-2013'!C40</f>
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <f>'FER-2013'!D40</f>
-        <v>1641</v>
+        <v>1549</v>
       </c>
       <c r="D4">
         <f>'FER-2013'!E40</f>
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <f>'FER-2013'!F40</f>
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>'FER-2013'!B41</f>
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <f>'FER-2013'!C41</f>
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <f>'FER-2013'!D41</f>
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <f>'FER-2013'!E41</f>
-        <v>1102</v>
+        <v>1010</v>
       </c>
       <c r="E5">
         <f>'FER-2013'!F41</f>
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>'FER-2013'!B42</f>
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <f>'FER-2013'!C42</f>
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <f>'FER-2013'!D42</f>
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <f>'FER-2013'!E42</f>
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <f>'FER-2013'!F42</f>
-        <v>1063</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>
@@ -2297,6 +3547,1106 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEACB8D3-FA48-4748-98CC-4C2DF9F4255B}">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>881</v>
+      </c>
+      <c r="C2" s="2">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G7" si="0">SUM(B2:F2)</f>
+        <v>958</v>
+      </c>
+      <c r="H2">
+        <f>J2-G2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>872</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3" s="5">
+        <v>67</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H43" si="1">J3-G3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>86</v>
+      </c>
+      <c r="D4">
+        <v>1511</v>
+      </c>
+      <c r="E4">
+        <v>69</v>
+      </c>
+      <c r="F4" s="5">
+        <v>73</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1774</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>1063</v>
+      </c>
+      <c r="F5" s="5">
+        <v>55</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1233</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <v>60</v>
+      </c>
+      <c r="E6" s="7">
+        <v>55</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1089</v>
+      </c>
+      <c r="G6">
+        <f>SUM(B6:F6)</f>
+        <v>1247</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f>SUM(B2:B6)</f>
+        <v>991</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C2:C6)</f>
+        <v>1047</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D6)</f>
+        <v>1637</v>
+      </c>
+      <c r="E7">
+        <f>SUM(E2:E6)</f>
+        <v>1269</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F2:F6)</f>
+        <v>1292</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>6236</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>825</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G16" si="2">SUM(B11:F11)</f>
+        <v>958</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>885</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5">
+        <v>54</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>1024</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>1584</v>
+      </c>
+      <c r="E13">
+        <v>64</v>
+      </c>
+      <c r="F13" s="5">
+        <v>73</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>1774</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4">
+        <v>84</v>
+      </c>
+      <c r="C14">
+        <v>68</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>963</v>
+      </c>
+      <c r="F14" s="5">
+        <v>88</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1233</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6">
+        <v>67</v>
+      </c>
+      <c r="C15" s="7">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7">
+        <v>25</v>
+      </c>
+      <c r="E15" s="7">
+        <v>94</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1025</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>1247</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <f>SUM(B11:B15)</f>
+        <v>1028</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C11:C15)</f>
+        <v>1056</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D11:D15)</f>
+        <v>1678</v>
+      </c>
+      <c r="E16">
+        <f>SUM(E11:E15)</f>
+        <v>1202</v>
+      </c>
+      <c r="F16">
+        <f>SUM(F11:F15)</f>
+        <v>1272</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>6236</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>858</v>
+      </c>
+      <c r="C20" s="2">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>37</v>
+      </c>
+      <c r="F20" s="3">
+        <v>43</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G25" si="3">SUM(B20:F20)</f>
+        <v>958</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4">
+        <v>73</v>
+      </c>
+      <c r="C21">
+        <v>802</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>59</v>
+      </c>
+      <c r="F21" s="5">
+        <v>81</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4">
+        <v>60</v>
+      </c>
+      <c r="C22">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>1602</v>
+      </c>
+      <c r="E22">
+        <v>42</v>
+      </c>
+      <c r="F22" s="5">
+        <v>38</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>1774</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4">
+        <v>54</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>1086</v>
+      </c>
+      <c r="F23" s="5">
+        <v>62</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>1233</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="6">
+        <v>97</v>
+      </c>
+      <c r="C24" s="7">
+        <v>49</v>
+      </c>
+      <c r="D24" s="7">
+        <v>10</v>
+      </c>
+      <c r="E24" s="7">
+        <v>78</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1013</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>1247</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <f>SUM(B20:B24)</f>
+        <v>1142</v>
+      </c>
+      <c r="C25">
+        <f>SUM(C20:C24)</f>
+        <v>919</v>
+      </c>
+      <c r="D25">
+        <f>SUM(D20:D24)</f>
+        <v>1636</v>
+      </c>
+      <c r="E25">
+        <f>SUM(E20:E24)</f>
+        <v>1302</v>
+      </c>
+      <c r="F25">
+        <f>SUM(F20:F24)</f>
+        <v>1237</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>6236</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>822</v>
+      </c>
+      <c r="C29" s="2">
+        <v>37</v>
+      </c>
+      <c r="D29" s="2">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2">
+        <v>51</v>
+      </c>
+      <c r="F29" s="3">
+        <v>33</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G34" si="4">SUM(B29:F29)</f>
+        <v>958</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>920</v>
+      </c>
+      <c r="D30">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>38</v>
+      </c>
+      <c r="F30" s="5">
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>1631</v>
+      </c>
+      <c r="E31">
+        <v>52</v>
+      </c>
+      <c r="F31" s="5">
+        <v>41</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>1774</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="4">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <v>27</v>
+      </c>
+      <c r="E32">
+        <v>995</v>
+      </c>
+      <c r="F32" s="5">
+        <v>103</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>1233</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="6">
+        <v>37</v>
+      </c>
+      <c r="C33" s="7">
+        <v>42</v>
+      </c>
+      <c r="D33" s="7">
+        <v>18</v>
+      </c>
+      <c r="E33" s="7">
+        <v>55</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1095</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>1247</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <f>SUM(B29:B33)</f>
+        <v>943</v>
+      </c>
+      <c r="C34">
+        <f>SUM(C29:C33)</f>
+        <v>1092</v>
+      </c>
+      <c r="D34">
+        <f>SUM(D29:D33)</f>
+        <v>1709</v>
+      </c>
+      <c r="E34">
+        <f>SUM(E29:E33)</f>
+        <v>1191</v>
+      </c>
+      <c r="F34">
+        <f>SUM(F29:F33)</f>
+        <v>1301</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>6236</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>6236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>795</v>
+      </c>
+      <c r="C38" s="2">
+        <v>34</v>
+      </c>
+      <c r="D38" s="2">
+        <v>29</v>
+      </c>
+      <c r="E38" s="2">
+        <v>48</v>
+      </c>
+      <c r="F38" s="3">
+        <v>52</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38:G43" si="5">SUM(B38:F38)</f>
+        <v>958</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4">
+        <v>36</v>
+      </c>
+      <c r="C39">
+        <v>884</v>
+      </c>
+      <c r="D39">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <v>53</v>
+      </c>
+      <c r="F39" s="5">
+        <v>34</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>1024</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>1641</v>
+      </c>
+      <c r="E40">
+        <v>61</v>
+      </c>
+      <c r="F40" s="5">
+        <v>46</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>1774</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4">
+        <v>22</v>
+      </c>
+      <c r="C41">
+        <v>45</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>1102</v>
+      </c>
+      <c r="F41" s="5">
+        <v>48</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>1233</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="6">
+        <v>58</v>
+      </c>
+      <c r="C42" s="7">
+        <v>48</v>
+      </c>
+      <c r="D42" s="7">
+        <v>9</v>
+      </c>
+      <c r="E42" s="7">
+        <v>69</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1063</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>1247</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <f>SUM(B38:B42)</f>
+        <v>922</v>
+      </c>
+      <c r="C43">
+        <f>SUM(C38:C42)</f>
+        <v>1026</v>
+      </c>
+      <c r="D43">
+        <f>SUM(D38:D42)</f>
+        <v>1712</v>
+      </c>
+      <c r="E43">
+        <f>SUM(E38:E42)</f>
+        <v>1333</v>
+      </c>
+      <c r="F43">
+        <f>SUM(F38:F42)</f>
+        <v>1243</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>6236</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>6236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0FA124-3DEB-4289-9DEA-4F7D11BB8308}">
   <dimension ref="A1:J43"/>
   <sheetViews>
@@ -3396,7 +5746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02232884-B856-4883-AB8E-3A546A03DD3B}">
   <dimension ref="A1:AA43"/>
   <sheetViews>

--- a/emotions/fer_experiments.xlsx
+++ b/emotions/fer_experiments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\my-study-python\emotions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\my-study-python\emotions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29A76C1-6ADA-4873-BFD1-B625514C17CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A76B748-5DF9-4B57-9145-DC3F3D6D9ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FER-2013" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE19" sqref="AE19"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/emotions/fer_experiments.xlsx
+++ b/emotions/fer_experiments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\my-study-python\emotions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\my-study-python\emotions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A76B748-5DF9-4B57-9145-DC3F3D6D9ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33940075-9EC0-4509-B095-763391EBEF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FER-2013" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -2840,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4250BAB4-792F-4AA2-8B21-C93E611E641D}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3409,7 +3409,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/emotions/fer_experiments.xlsx
+++ b/emotions/fer_experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\my-study-python\emotions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33940075-9EC0-4509-B095-763391EBEF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B427AE53-4B6B-42F5-A191-21691671E420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FER-2013" sheetId="1" r:id="rId1"/>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2395,19 +2395,19 @@
         <v>0</v>
       </c>
       <c r="B38" s="1">
-        <v>703</v>
+        <v>743</v>
       </c>
       <c r="C38" s="2">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D38" s="2">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E38" s="2">
         <v>71</v>
       </c>
       <c r="F38" s="3">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <f t="shared" ref="G38:G43" si="22">SUM(B38:F38)</f>
@@ -2437,15 +2437,15 @@
       </c>
       <c r="R38">
         <f>B38+L38</f>
-        <v>711</v>
+        <v>751</v>
       </c>
       <c r="S38">
         <f t="shared" ref="S38:S42" si="23">C38+M38</f>
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="T38">
         <f t="shared" ref="T38:T42" si="24">D38+N38</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="U38">
         <f t="shared" ref="U38:U42" si="25">E38+O38</f>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="V38">
         <f t="shared" ref="V38:V42" si="26">F38+P38</f>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="X38">
         <v>703</v>
@@ -2476,19 +2476,19 @@
         <v>2</v>
       </c>
       <c r="B39" s="4">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C39">
-        <v>792</v>
+        <v>836</v>
       </c>
       <c r="D39">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E39">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F39" s="5">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G39">
         <f t="shared" si="22"/>
@@ -2518,23 +2518,23 @@
       </c>
       <c r="R39">
         <f t="shared" ref="R39:R42" si="27">B39+L39</f>
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S39">
         <f t="shared" si="23"/>
-        <v>800</v>
+        <v>844</v>
       </c>
       <c r="T39">
         <f t="shared" si="24"/>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="U39">
         <f t="shared" si="25"/>
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="V39">
         <f t="shared" si="26"/>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="X39">
         <v>59</v>
@@ -2563,10 +2563,10 @@
         <v>38</v>
       </c>
       <c r="D40">
-        <v>1549</v>
+        <v>1559</v>
       </c>
       <c r="E40">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F40" s="5">
         <v>69</v>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="T40">
         <f t="shared" si="24"/>
-        <v>1557</v>
+        <v>1567</v>
       </c>
       <c r="U40">
         <f t="shared" si="25"/>
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="V40">
         <f t="shared" si="26"/>
@@ -2719,10 +2719,10 @@
         <v>5</v>
       </c>
       <c r="B42" s="6">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C42" s="7">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D42" s="7">
         <v>32</v>
@@ -2731,7 +2731,7 @@
         <v>92</v>
       </c>
       <c r="F42" s="8">
-        <v>971</v>
+        <v>992</v>
       </c>
       <c r="G42">
         <f t="shared" si="22"/>
@@ -2761,11 +2761,11 @@
       </c>
       <c r="R42">
         <f t="shared" si="27"/>
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="S42">
         <f t="shared" si="23"/>
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="T42">
         <f t="shared" si="24"/>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="V42">
         <f t="shared" si="26"/>
-        <v>979</v>
+        <v>1000</v>
       </c>
       <c r="X42">
         <v>81</v>
@@ -2801,23 +2801,23 @@
       </c>
       <c r="B43">
         <f>SUM(B38:B42)</f>
-        <v>922</v>
+        <v>942</v>
       </c>
       <c r="C43">
         <f>SUM(C38:C42)</f>
-        <v>1026</v>
+        <v>1043</v>
       </c>
       <c r="D43">
         <f>SUM(D38:D42)</f>
-        <v>1712</v>
+        <v>1692</v>
       </c>
       <c r="E43">
         <f>SUM(E38:E42)</f>
-        <v>1333</v>
+        <v>1310</v>
       </c>
       <c r="F43">
         <f>SUM(F38:F42)</f>
-        <v>1243</v>
+        <v>1249</v>
       </c>
       <c r="G43">
         <f t="shared" si="22"/>
@@ -2840,7 +2840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4250BAB4-792F-4AA2-8B21-C93E611E641D}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -3409,7 +3409,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3434,15 +3434,15 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>'FER-2013'!B38</f>
-        <v>703</v>
+        <v>743</v>
       </c>
       <c r="B2">
         <f>'FER-2013'!C38</f>
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <f>'FER-2013'!D38</f>
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <f>'FER-2013'!E38</f>
@@ -3450,29 +3450,29 @@
       </c>
       <c r="E2">
         <f>'FER-2013'!F38</f>
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>'FER-2013'!B39</f>
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <f>'FER-2013'!C39</f>
-        <v>792</v>
+        <v>836</v>
       </c>
       <c r="C3">
         <f>'FER-2013'!D39</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <f>'FER-2013'!E39</f>
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <f>'FER-2013'!F39</f>
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -3486,11 +3486,11 @@
       </c>
       <c r="C4">
         <f>'FER-2013'!D40</f>
-        <v>1549</v>
+        <v>1559</v>
       </c>
       <c r="D4">
         <f>'FER-2013'!E40</f>
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <f>'FER-2013'!F40</f>
@@ -3522,11 +3522,11 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>'FER-2013'!B42</f>
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <f>'FER-2013'!C42</f>
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <f>'FER-2013'!D42</f>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="E6">
         <f>'FER-2013'!F42</f>
-        <v>971</v>
+        <v>992</v>
       </c>
     </row>
   </sheetData>
